--- a/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19440" windowHeight="8760" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="216" windowWidth="19416" windowHeight="8580" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GOAL" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,16 @@
     <sheet name="PIP" sheetId="4" r:id="rId4"/>
     <sheet name="Minuta Junta 1" sheetId="6" r:id="rId5"/>
     <sheet name="Minuta Junta 2" sheetId="7" r:id="rId6"/>
-    <sheet name="Minuta Kunta 3" sheetId="8" r:id="rId7"/>
+    <sheet name="Minuta Junta 3" sheetId="8" r:id="rId7"/>
     <sheet name="Minuta" sheetId="5" r:id="rId8"/>
+    <sheet name="INV" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="159">
   <si>
     <t>Measures</t>
   </si>
@@ -219,9 +220,6 @@
   </si>
   <si>
     <t>Senior Managment</t>
-  </si>
-  <si>
-    <t>Carlos Rammos</t>
   </si>
   <si>
     <t>Team Leader</t>
@@ -303,86 +301,205 @@
     <t>Marketing mgmt</t>
   </si>
   <si>
+    <t>Lanzamiento Junta 2.- Fijar metas y establecer roles</t>
+  </si>
+  <si>
+    <t>Víctor Lorenzana</t>
+  </si>
+  <si>
+    <t>Generar una actividad al inicio del proyecto para acordar la información a proporcionar al AP.</t>
+  </si>
+  <si>
+    <t>Junta 4</t>
+  </si>
+  <si>
     <t>Meeting roles</t>
   </si>
   <si>
     <t>Meeting overview</t>
   </si>
   <si>
+    <t>Review Managment's Stated Goals</t>
+  </si>
+  <si>
+    <t>Lider</t>
+  </si>
+  <si>
+    <t>Implied Goals</t>
+  </si>
+  <si>
+    <t>Team Goals</t>
+  </si>
+  <si>
+    <t>Team Role Selection</t>
+  </si>
+  <si>
+    <t>Goal Tracking</t>
+  </si>
+  <si>
+    <t>Proponer la adquisición del módulo de gráficas de Gantt de Process Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definir en el plan de riesgos que al tener  requerimientos inciertos no se pueda entregar a tiempo el proyecto </t>
+  </si>
+  <si>
+    <t>Infotec, México</t>
+  </si>
+  <si>
+    <t>Lanzamiento Junta 3.- Producir estrategia de desarrollo, proceso de desarrollo y plan de soporte</t>
+  </si>
+  <si>
+    <t>JRJN, CIRI, MEJS</t>
+  </si>
+  <si>
+    <t>CIRI</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Acuerdos RAE(Acciones)" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Biblioteca" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Buscador" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Auditoria - 1. Registro de sesiones, ediciones, actualizaciones de usuarios" utilizará la aplicación de SWB</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Etiquetas" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Asociar indicador a acción" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Asociar indicador a riesgo" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Asociar indicador a inicitiva" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Asociar iniciativa a indicadores" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Asociar iniciativa a acuerdos" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Asociar iniciativa a riesgos" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Copiar iniciativas" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Duplicar iniciativas" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Envio de contraseña" no puede llevarse acabo porque se encuentran cifradas las contraseñas para seguridad del sistema. En su lugar solo se queda el requerimiento de "Cambiar, resear y confirmar nueva contraseña"</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Selección para envio de ediciones y actualizaciones, idioma, uso horario" no puede llevarse acabo porque se encuentran cifradas las contraseñas para seguridad del sistema</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Ver y eliminar historial de correos enviados" esta bajo la responsabilidad del cliente debido a que puede ser un almacenamiento excesivo en la bd.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Opciones" es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Vista de detalle de acuerdos"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Vista resumen de acuerdos"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Periodos - seleccionar periodicidad"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Mostrar y ocultar periodicidades"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Mostrar opciones avanzadas según perfil"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Copiar Scorecard"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Ordenar Scorecard"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Alineación de indicadores"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Alineación de inciativas"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Alineación de cadena de productividad"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Alineación de relación causa efecto"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>INV</t>
+  </si>
+  <si>
+    <t>Process Element</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>When needed</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Estimated hours</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Cerrar el alcance de los elementos no definidos</t>
+  </si>
+  <si>
     <t>Completar las funcionalidades proporcionadas por el cliente en su documento</t>
   </si>
   <si>
+    <t>Semanal</t>
+  </si>
+  <si>
     <t>Terminar el primer ciclo del proyecto en octubre</t>
   </si>
   <si>
+    <t>MEJS</t>
+  </si>
+  <si>
     <t>Proveer oportunamente la información del proyecto acordada con el administrador del proyecto</t>
   </si>
   <si>
+    <t>Generar pips para el proceso de desarrollo de software</t>
+  </si>
+  <si>
+    <t>1 por integrante</t>
+  </si>
+  <si>
+    <t>JRJN</t>
+  </si>
+  <si>
     <t>Recopilar metricas correctas de la ejecución completa de los procesos</t>
   </si>
   <si>
-    <t>Generar pips para el proceso de desarrollo de software</t>
-  </si>
-  <si>
-    <t>JRJN</t>
-  </si>
-  <si>
-    <t>CIRI</t>
-  </si>
-  <si>
-    <t>1 por integrante</t>
-  </si>
-  <si>
     <t>Defectos mayores entregados al area de pruebas</t>
   </si>
   <si>
     <t>&lt;= 1 Def/Kloc</t>
   </si>
   <si>
-    <t>MEJS</t>
-  </si>
-  <si>
     <t>Frecuency</t>
   </si>
   <si>
-    <t>Semanal</t>
-  </si>
-  <si>
-    <t>Víctor Lorenzana</t>
-  </si>
-  <si>
-    <t>Lanzamiento Junta 2.- Fijar metas y establecer roles</t>
-  </si>
-  <si>
-    <t>Review Managment's Stated Goals</t>
-  </si>
-  <si>
-    <t>Lider</t>
-  </si>
-  <si>
-    <t>Implied Goals</t>
-  </si>
-  <si>
-    <t>Team Goals</t>
-  </si>
-  <si>
-    <t>Team Role Selection</t>
-  </si>
-  <si>
-    <t>Goal Tracking</t>
-  </si>
-  <si>
-    <t>Generar una actividad al inicio del proyecto para acordar la información a proporcionar al AP.</t>
-  </si>
-  <si>
-    <t>Junta 4</t>
-  </si>
-  <si>
-    <t>Proponer la adquisición del módulo de gráficas de Gantt de Process Dashboard</t>
-  </si>
-  <si>
-    <t>No es posible estimar el requerimiento Acuerdo RAE (Acciones)
-debido a que desconocemos su definición. En concecuencia no entra en el plan calendario</t>
+    <t>Product conceptual design</t>
   </si>
 </sst>
 </file>
@@ -476,6 +593,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -714,15 +842,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -759,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -772,178 +891,173 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,22 +1360,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="42.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.88671875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +1383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1277,172 +1391,196 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="51"/>
-    </row>
-    <row r="6" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="44">
+      <c r="E5" s="60"/>
+    </row>
+    <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="46">
         <v>1</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="43">
+        <v>109</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="45">
         <v>41578</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="44">
+        <v>149</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="46">
         <v>0.9</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="44"/>
       <c r="D9" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="44">
+        <v>153</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="46">
         <v>1</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1459,21 +1597,21 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B5" sqref="B5:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="26.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1481,7 +1619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1489,241 +1627,241 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15" t="s">
-        <v>100</v>
+      <c r="B5" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="52" t="s">
+        <v>153</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
     </row>
-    <row r="7" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>100</v>
+      <c r="B8" s="53" t="s">
+        <v>153</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
-        <v>105</v>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>100</v>
+      <c r="B12" s="53" t="s">
+        <v>153</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
-      <c r="B14" s="15" t="s">
-        <v>100</v>
+      <c r="B14" s="52" t="s">
+        <v>153</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
-        <v>105</v>
+      <c r="B16" s="53" t="s">
+        <v>149</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>105</v>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15"/>
+      <c r="B18" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
-        <v>101</v>
+      <c r="B20" s="53" t="s">
+        <v>109</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
-        <v>105</v>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15"/>
+      <c r="B22" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18"/>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
         <v>11</v>
@@ -1733,17 +1871,17 @@
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
         <v>11</v>
@@ -1753,17 +1891,17 @@
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="20" t="s">
         <v>11</v>
@@ -1773,17 +1911,17 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19"/>
       <c r="B30" s="20" t="s">
         <v>11</v>
@@ -1793,17 +1931,17 @@
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="19"/>
       <c r="B32" s="20" t="s">
         <v>11</v>
@@ -1813,17 +1951,17 @@
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="19"/>
       <c r="B34" s="20" t="s">
         <v>11</v>
@@ -1833,17 +1971,17 @@
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="23"/>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="B36" s="20" t="s">
         <v>11</v>
@@ -1853,17 +1991,17 @@
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="23"/>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="19"/>
       <c r="B38" s="20" t="s">
         <v>11</v>
@@ -1873,7 +2011,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1883,49 +2021,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" style="2"/>
-    <col min="9" max="9" width="21.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
+    <col min="5" max="8" width="11.44140625" style="2"/>
+    <col min="9" max="9" width="21.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -1959,11 +2097,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="74" t="s">
-        <v>119</v>
-      </c>
+      <c r="B5" s="28"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -2124,17 +2260,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="14.140625" style="2"/>
-    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2"/>
-    <col min="7" max="7" width="22.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="14.140625" style="2"/>
+    <col min="1" max="3" width="14.109375" style="2"/>
+    <col min="4" max="4" width="20.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="2"/>
+    <col min="7" max="7" width="22.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="14.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2358,88 +2494,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="39">
+      <c r="D1" s="40">
         <v>41421</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="40">
         <v>41421</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="41">
         <v>0.45069444444444445</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="41">
         <v>0.52152777777777781</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -2451,7 +2587,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -2463,120 +2599,120 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="55"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="55"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
+      <c r="D14" s="64"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="55"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
+      <c r="D15" s="64"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="55"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="64"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55" t="s">
+      <c r="D17" s="64"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="55"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="D18" s="64"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="68"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -2596,197 +2732,218 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="41">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9">
         <v>10.49</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="9">
         <v>11.04</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9">
+        <v>11.05</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="41">
-        <v>11.05</v>
-      </c>
-      <c r="C30" s="42">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="E30" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="39">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.48055555555555557</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="39">
+        <v>0.48194444444444445</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="42">
-        <v>0.47638888888888892</v>
-      </c>
-      <c r="C31" s="42">
-        <v>0.48055555555555557</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="42">
-        <v>0.48194444444444445</v>
-      </c>
-      <c r="C32" s="42">
-        <v>0.49583333333333335</v>
-      </c>
-      <c r="D32" s="7" t="s">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="39">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="42">
-        <v>0.49652777777777773</v>
-      </c>
-      <c r="C33" s="42">
-        <v>0.50208333333333333</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="39">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="42">
-        <v>0.50763888888888886</v>
-      </c>
-      <c r="C34" s="42">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="69"/>
+    </row>
+    <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="66">
+        <v>41423</v>
+      </c>
+      <c r="D44" s="67"/>
+    </row>
+    <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="60"/>
-    </row>
-    <row r="41" spans="1:5" ht="153" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="B45" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="57">
+      <c r="D45" s="67"/>
+    </row>
+    <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="66">
         <v>41423</v>
       </c>
-      <c r="D41" s="58"/>
-    </row>
-    <row r="42" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="58"/>
-    </row>
-    <row r="43" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="57">
-        <v>41423</v>
-      </c>
-      <c r="D43" s="58"/>
-    </row>
-    <row r="44" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="B47" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="66">
+        <v>41421</v>
+      </c>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B44" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="57">
+      <c r="B48" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="66">
         <v>41421</v>
       </c>
-      <c r="D44" s="58"/>
-    </row>
-    <row r="45" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="57">
-        <v>41421</v>
-      </c>
-      <c r="D45" s="58"/>
+      <c r="D48" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A21:B21"/>
@@ -2821,63 +2978,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="17.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D1" s="40">
+        <v>41421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C2" s="30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="40">
+        <v>41421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>48</v>
       </c>
+      <c r="B4" s="55">
+        <v>0.55694444444444446</v>
+      </c>
       <c r="C4" s="30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="55">
+        <v>0.81736111111111109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -2889,7 +3069,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -2901,94 +3081,114 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="55"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="64"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="64"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="64"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="59"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="68"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>53</v>
       </c>
@@ -3005,161 +3205,251 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
       <c r="B29" s="42">
         <v>0.55694444444444446</v>
       </c>
       <c r="C29" s="42">
         <v>0.56805555555555554</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="D29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
       <c r="B30" s="42">
         <v>0.56874999999999998</v>
       </c>
       <c r="C30" s="42">
         <v>0.5708333333333333</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
+      <c r="D30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
       <c r="B31" s="42">
         <v>0.64166666666666672</v>
       </c>
       <c r="C31" s="42">
         <v>0.6430555555555556</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="42">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="C32" s="42">
+        <v>0.70347222222222217</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="42">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="C33" s="42">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="42">
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="C34" s="42">
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="42">
+        <v>0.73472222222222217</v>
+      </c>
+      <c r="C35" s="42">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="42">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="C36" s="42">
+        <v>0.78125</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="42">
+        <v>0.78194444444444444</v>
+      </c>
+      <c r="C37" s="42">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="42">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="C38" s="42">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="42">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="C39" s="42">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="42">
+        <v>0.81180555555555556</v>
+      </c>
+      <c r="C40" s="42">
+        <v>0.81736111111111109</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="60"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="69"/>
+    </row>
+    <row r="44" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="67"/>
+    </row>
+    <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D45" s="67"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -3204,114 +3494,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="65" t="s">
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="66">
-        <v>41421</v>
-      </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="D1" s="40">
+        <v>41422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="65" t="s">
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="D2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="66">
-        <v>41421</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="61">
-        <v>0.55694444444444446</v>
-      </c>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="55">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="61">
-        <v>0.81736111111111109</v>
-      </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="D4" s="55">
+        <v>0.87916666666666676</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -3323,7 +3584,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -3335,414 +3596,675 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="55"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55" t="s">
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="55"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55" t="s">
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="64"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="55"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55" t="s">
+      <c r="D15" s="64"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="55"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="D16" s="64"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="59"/>
-    </row>
-    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
+      <c r="B27" s="68"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
-      <c r="B29" s="72">
-        <v>0.55694444444444446</v>
-      </c>
-      <c r="C29" s="72">
-        <v>0.56805555555555554</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="72">
-        <v>0.56874999999999998</v>
-      </c>
-      <c r="C30" s="72">
-        <v>0.5708333333333333</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="72">
-        <v>0.64166666666666672</v>
-      </c>
-      <c r="C31" s="72">
-        <v>0.6430555555555556</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="72">
-        <v>0.64444444444444449</v>
-      </c>
-      <c r="C32" s="72">
-        <v>0.70347222222222217</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="72">
-        <v>0.71250000000000002</v>
-      </c>
-      <c r="C33" s="72">
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="72">
-        <v>0.72291666666666676</v>
-      </c>
-      <c r="C34" s="72">
-        <v>0.73472222222222217</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
-      <c r="B35" s="72">
-        <v>0.73472222222222217</v>
-      </c>
-      <c r="C35" s="72">
-        <v>0.77013888888888893</v>
-      </c>
-      <c r="D35" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="68" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
-      <c r="B36" s="72">
-        <v>0.77847222222222223</v>
-      </c>
-      <c r="C36" s="72">
-        <v>0.78125</v>
-      </c>
-      <c r="D36" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>111</v>
-      </c>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="56">
+        <v>0.3979166666666667</v>
+      </c>
+      <c r="C29" s="56">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="56">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C30" s="56">
+        <v>0.40625</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="56">
+        <v>0.4069444444444445</v>
+      </c>
+      <c r="C31" s="56">
+        <v>0.47083333333333338</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="56">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C32" s="56">
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="56">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C33" s="56">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="56">
+        <v>0.67986111111111114</v>
+      </c>
+      <c r="C34" s="56">
+        <v>0.87916666666666676</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="56">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
-      <c r="B37" s="72">
-        <v>0.78194444444444444</v>
-      </c>
-      <c r="C37" s="72">
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="D37" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="68" t="s">
-        <v>72</v>
-      </c>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
-      <c r="B38" s="72">
-        <v>0.80138888888888893</v>
-      </c>
-      <c r="C38" s="72">
-        <v>0.80763888888888891</v>
-      </c>
-      <c r="D38" s="68" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="68" t="s">
-        <v>72</v>
-      </c>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
-      <c r="B39" s="72">
-        <v>0.80763888888888891</v>
-      </c>
-      <c r="C39" s="72">
-        <v>0.81180555555555556</v>
-      </c>
-      <c r="D39" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="68" t="s">
-        <v>72</v>
-      </c>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="67"/>
-      <c r="B40" s="72">
-        <v>0.81180555555555556</v>
-      </c>
-      <c r="C40" s="72">
-        <v>0.81736111111111109</v>
-      </c>
-      <c r="D40" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="68" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="60"/>
-    </row>
-    <row r="44" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="73" t="s">
+      <c r="D43" s="69"/>
+    </row>
+    <row r="44" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D44" s="67"/>
+    </row>
+    <row r="45" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D45" s="67"/>
+    </row>
+    <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D50" s="67"/>
+    </row>
+    <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D51" s="67"/>
+    </row>
+    <row r="52" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D44" s="58"/>
-    </row>
-    <row r="45" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="73" t="s">
+      <c r="B52" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D52" s="67"/>
+    </row>
+    <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="57">
+      <c r="B53" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="66">
         <v>41422</v>
       </c>
-      <c r="D45" s="58"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
+      <c r="D53" s="67"/>
+    </row>
+    <row r="54" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D54" s="67"/>
+    </row>
+    <row r="55" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D55" s="67"/>
+    </row>
+    <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D56" s="67"/>
+    </row>
+    <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D57" s="67"/>
+    </row>
+    <row r="58" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D58" s="67"/>
+    </row>
+    <row r="59" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D59" s="67"/>
+    </row>
+    <row r="60" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D60" s="67"/>
+    </row>
+    <row r="61" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D61" s="67"/>
+    </row>
+    <row r="62" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D62" s="67"/>
+    </row>
+    <row r="63" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D63" s="67"/>
+    </row>
+    <row r="64" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D64" s="67"/>
+    </row>
+    <row r="65" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D65" s="67"/>
+    </row>
+    <row r="66" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D66" s="67"/>
+    </row>
+    <row r="67" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D67" s="67"/>
+    </row>
+    <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D68" s="67"/>
+    </row>
+    <row r="69" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D69" s="67"/>
+    </row>
+    <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D70" s="67"/>
+    </row>
+    <row r="71" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D71" s="67"/>
+    </row>
+    <row r="72" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="66">
+        <v>41422</v>
+      </c>
+      <c r="D72" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="56">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3754,16 +4276,16 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
-    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
@@ -3771,7 +4293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
@@ -3779,12 +4301,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>48</v>
       </c>
@@ -3792,21 +4314,21 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -3818,7 +4340,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -3830,92 +4352,92 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="55"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+      <c r="D11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="59"/>
+      <c r="B27" s="68"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -3935,145 +4457,149 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="60"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="69"/>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
@@ -4088,13 +4614,13 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C12:D12"/>
@@ -4104,11 +4630,65 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="216" windowWidth="19416" windowHeight="8580" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="276" windowWidth="15240" windowHeight="6048" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GOAL" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="189">
   <si>
     <t>Measures</t>
   </si>
@@ -394,12 +394,6 @@
     <t>Se acordo que el requerimiento "Duplicar iniciativas" es incierto por lo que no se estimara.</t>
   </si>
   <si>
-    <t>Se acordo que el requerimiento "Envio de contraseña" no puede llevarse acabo porque se encuentran cifradas las contraseñas para seguridad del sistema. En su lugar solo se queda el requerimiento de "Cambiar, resear y confirmar nueva contraseña"</t>
-  </si>
-  <si>
-    <t>Se acordo que el requerimiento "Selección para envio de ediciones y actualizaciones, idioma, uso horario" no puede llevarse acabo porque se encuentran cifradas las contraseñas para seguridad del sistema</t>
-  </si>
-  <si>
     <t>Se acordo que el requerimiento "Ver y eliminar historial de correos enviados" esta bajo la responsabilidad del cliente debido a que puede ser un almacenamiento excesivo en la bd.</t>
   </si>
   <si>
@@ -430,9 +424,6 @@
     <t>Se acordo que el requerimiento "Alineación de indicadores"  es incierto por lo que no se estimara.</t>
   </si>
   <si>
-    <t>Se acordo que el requerimiento "Alineación de inciativas"  es incierto por lo que no se estimara.</t>
-  </si>
-  <si>
     <t>Se acordo que el requerimiento "Alineación de cadena de productividad"  es incierto por lo que no se estimara.</t>
   </si>
   <si>
@@ -500,13 +491,123 @@
   </si>
   <si>
     <t>Product conceptual design</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Alineación de iniciativas"  es incierto por lo que no se estimara.</t>
+  </si>
+  <si>
+    <t>El equipo acordo que se utilizará 20 horas por semana para Task hours</t>
+  </si>
+  <si>
+    <t>Para los tipos de componente las unidades de medida, DLD Lines se utilizarán en lugar de Propiedades.</t>
+  </si>
+  <si>
+    <t>Generar checklist para el proceso del desarrollo del manual técnico</t>
+  </si>
+  <si>
+    <t>Los scripts de los procesos faltantes deberan ser desarrolladas al principio o durante el proyecto</t>
+  </si>
+  <si>
+    <t>Scripts para el proceso de Desarrollo de documentos de pruebas integrales</t>
+  </si>
+  <si>
+    <t>Scripts para el proceso de Ejecución de pruebas integrales</t>
+  </si>
+  <si>
+    <t>Scripts para el proceso de Desarrollo Manual Tecnico</t>
+  </si>
+  <si>
+    <t>Checklist para el proceso de Ejecución de pruebas integrales</t>
+  </si>
+  <si>
+    <t>Revisión de checklist de inspección de código</t>
+  </si>
+  <si>
+    <t>Junta 6</t>
+  </si>
+  <si>
+    <t>Revisión para entender el contador de lineas de dashboard</t>
+  </si>
+  <si>
+    <t>Soporte a  VNC</t>
+  </si>
+  <si>
+    <t>Definición del proceso de control de cambio y quienes participaran en él.</t>
+  </si>
+  <si>
+    <t>Ejecutar tareas de rol Quality</t>
+  </si>
+  <si>
+    <t>Ejecutar tareas de rol Process</t>
+  </si>
+  <si>
+    <t>Ejecutar tareas de rol Design</t>
+  </si>
+  <si>
+    <t>Ejecutar tareas de rol Support</t>
+  </si>
+  <si>
+    <t>Ejecutar tareas de rol Customer Interface</t>
+  </si>
+  <si>
+    <t>Ejecutar tareas de rol Planning</t>
+  </si>
+  <si>
+    <t>Ejecutar tareas de rol Implementation</t>
+  </si>
+  <si>
+    <t>Ejecutar tareas de rol Test</t>
+  </si>
+  <si>
+    <t>Development strategy</t>
+  </si>
+  <si>
+    <t>Development process</t>
+  </si>
+  <si>
+    <t>Process plan</t>
+  </si>
+  <si>
+    <t>Support plan</t>
+  </si>
+  <si>
+    <t>CCB Membership</t>
+  </si>
+  <si>
+    <t>Role plan</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Envio de contraseña" no puede llevarse acabo porque se encuentran cifradas las contraseñas para seguridad del sistema. En su lugar solo se queda el requerimiento de "Cambiar, resetear y confirmar nueva contraseña"</t>
+  </si>
+  <si>
+    <t>Se acordo que el requerimiento "Selección para envio de ediciones y actualizaciones, idioma, uso horario" es incierto por lo que no se estimará.</t>
+  </si>
+  <si>
+    <r>
+      <t>Para los tipos de componente, aquellos que se midan en Pasos de CP, se clasifican como High Level Design Document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>En la junta 6 se agregará la tarea de revisión con el coach de los checklist que se tengan para mejorarlos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -562,6 +663,22 @@
       <color theme="1"/>
       <name val="Teen"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Teen"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Teen"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -878,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1038,6 +1155,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,17 +1176,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1402,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1422,7 +1569,7 @@
     </row>
     <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="46">
         <v>1</v>
@@ -1432,27 +1579,27 @@
         <v>109</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B7" s="45">
         <v>41578</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="47" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B8" s="46">
         <v>0.9</v>
@@ -1462,52 +1609,52 @@
         <v>109</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B10" s="46">
         <v>1</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1664,7 +1811,7 @@
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1688,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -1700,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1710,7 +1857,7 @@
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1722,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1734,7 +1881,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -1746,7 +1893,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1756,7 +1903,7 @@
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1768,7 +1915,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1778,7 +1925,7 @@
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1790,7 +1937,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1800,7 +1947,7 @@
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -1812,7 +1959,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1844,7 +1991,7 @@
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
       <c r="B22" s="52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -2563,17 +2710,17 @@
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -2605,114 +2752,114 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="68"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="68"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="68"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="68"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="68"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="68"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="68"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="65"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -2870,10 +3017,10 @@
       <c r="B43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="66"/>
     </row>
     <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -2882,10 +3029,10 @@
       <c r="B44" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="66">
+      <c r="C44" s="63">
         <v>41423</v>
       </c>
-      <c r="D44" s="67"/>
+      <c r="D44" s="64"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -2894,10 +3041,10 @@
       <c r="B45" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="67"/>
+      <c r="D45" s="64"/>
     </row>
     <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
@@ -2906,10 +3053,10 @@
       <c r="B46" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="66">
+      <c r="C46" s="63">
         <v>41423</v>
       </c>
-      <c r="D46" s="67"/>
+      <c r="D46" s="64"/>
     </row>
     <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
@@ -2918,10 +3065,10 @@
       <c r="B47" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="66">
+      <c r="C47" s="63">
         <v>41421</v>
       </c>
-      <c r="D47" s="67"/>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
@@ -2930,13 +3077,38 @@
       <c r="B48" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="66">
+      <c r="C48" s="63">
         <v>41421</v>
       </c>
-      <c r="D48" s="67"/>
+      <c r="D48" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -2944,31 +3116,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3045,17 +3192,17 @@
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3087,106 +3234,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="68"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="68"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="68"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="68"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="68"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="65"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -3392,10 +3539,10 @@
       <c r="B43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="66"/>
     </row>
     <row r="44" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
@@ -3404,10 +3551,10 @@
       <c r="B44" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="67"/>
+      <c r="D44" s="64"/>
     </row>
     <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
@@ -3416,43 +3563,68 @@
       <c r="B45" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="66">
+      <c r="C45" s="63">
         <v>41422</v>
       </c>
-      <c r="D45" s="67"/>
+      <c r="D45" s="64"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -3462,31 +3634,6 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3494,10 +3641,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3541,6 +3688,9 @@
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
+      <c r="B3" s="40">
+        <v>41422</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -3553,24 +3703,24 @@
         <v>49</v>
       </c>
       <c r="D4" s="55">
-        <v>0.87916666666666676</v>
+        <v>3.8194444444444441E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -3602,106 +3752,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="68"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="64"/>
+      <c r="D12" s="68"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="64"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="64"/>
+      <c r="D14" s="68"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="64"/>
+      <c r="D15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="68"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="65"/>
     </row>
     <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
@@ -3755,7 +3905,7 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E31" s="9"/>
     </row>
@@ -3768,7 +3918,7 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E32" s="9"/>
     </row>
@@ -3781,7 +3931,7 @@
         <v>0.67847222222222225</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E33" s="9"/>
     </row>
@@ -3794,451 +3944,563 @@
         <v>0.87916666666666676</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="56">
+      <c r="B35" s="70">
         <v>0.38750000000000001</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="54" t="s">
-        <v>158</v>
+      <c r="C35" s="70">
+        <v>0.53680555555555554</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>155</v>
       </c>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="70">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="C36" s="70">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>178</v>
+      </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="70">
+        <v>0.65</v>
+      </c>
+      <c r="C37" s="70">
+        <v>0.73819444444444438</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>178</v>
+      </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="70">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="C38" s="70">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>179</v>
+      </c>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="B39" s="70">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="C39" s="70">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>180</v>
+      </c>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="B40" s="72">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="C40" s="72">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="D40" s="73" t="s">
+        <v>181</v>
+      </c>
       <c r="E40" s="9"/>
     </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="49"/>
+      <c r="B41" s="74">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="C41" s="74">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="49"/>
+      <c r="B42" s="76">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="C42" s="76">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" s="54"/>
+    </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="79"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B44" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C44" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="69"/>
-    </row>
-    <row r="44" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="38" t="s">
+      <c r="D44" s="66"/>
+    </row>
+    <row r="45" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="38" t="s">
+      <c r="B45" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="66">
+      <c r="C45" s="63">
         <v>41422</v>
       </c>
-      <c r="D44" s="67"/>
-    </row>
-    <row r="45" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+      <c r="D45" s="64"/>
+    </row>
+    <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="66">
-        <v>41422</v>
-      </c>
-      <c r="D45" s="67"/>
-    </row>
-    <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
-        <v>113</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="66">
+      <c r="C46" s="63">
         <v>41422</v>
       </c>
-      <c r="D46" s="67"/>
-    </row>
-    <row r="47" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D46" s="64"/>
+    </row>
+    <row r="47" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="66">
+      <c r="C47" s="63">
         <v>41422</v>
       </c>
-      <c r="D47" s="67"/>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="66">
+      <c r="C48" s="63">
         <v>41422</v>
       </c>
-      <c r="D48" s="67"/>
+      <c r="D48" s="64"/>
     </row>
     <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="66">
+      <c r="C49" s="63">
         <v>41422</v>
       </c>
-      <c r="D49" s="67"/>
+      <c r="D49" s="64"/>
     </row>
     <row r="50" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="66">
+      <c r="C50" s="63">
         <v>41422</v>
       </c>
-      <c r="D50" s="67"/>
+      <c r="D50" s="64"/>
     </row>
     <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B51" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="66">
+      <c r="C51" s="63">
         <v>41422</v>
       </c>
-      <c r="D51" s="67"/>
+      <c r="D51" s="64"/>
     </row>
     <row r="52" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="66">
+      <c r="C52" s="63">
         <v>41422</v>
       </c>
-      <c r="D52" s="67"/>
+      <c r="D52" s="64"/>
     </row>
     <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B53" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="66">
+      <c r="C53" s="63">
         <v>41422</v>
       </c>
-      <c r="D53" s="67"/>
+      <c r="D53" s="64"/>
     </row>
     <row r="54" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="66">
+      <c r="C54" s="63">
         <v>41422</v>
       </c>
-      <c r="D54" s="67"/>
+      <c r="D54" s="64"/>
     </row>
     <row r="55" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="66">
+      <c r="C55" s="63">
         <v>41422</v>
       </c>
-      <c r="D55" s="67"/>
+      <c r="D55" s="64"/>
     </row>
     <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="66">
+      <c r="C56" s="63">
         <v>41422</v>
       </c>
-      <c r="D56" s="67"/>
+      <c r="D56" s="64"/>
     </row>
     <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="66">
+      <c r="C57" s="63">
         <v>41422</v>
       </c>
-      <c r="D57" s="67"/>
-    </row>
-    <row r="58" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="D57" s="64"/>
+    </row>
+    <row r="58" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="66">
+      <c r="C58" s="63">
         <v>41422</v>
       </c>
-      <c r="D58" s="67"/>
-    </row>
-    <row r="59" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="D58" s="64"/>
+    </row>
+    <row r="59" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="B59" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="66">
+      <c r="C59" s="63">
         <v>41422</v>
       </c>
-      <c r="D59" s="67"/>
-    </row>
-    <row r="60" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="D59" s="64"/>
+    </row>
+    <row r="60" spans="1:4" ht="66" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="B60" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="66">
+      <c r="C60" s="63">
         <v>41422</v>
       </c>
-      <c r="D60" s="67"/>
-    </row>
-    <row r="61" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D60" s="64"/>
+    </row>
+    <row r="61" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B61" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="66">
+      <c r="C61" s="63">
         <v>41422</v>
       </c>
-      <c r="D61" s="67"/>
+      <c r="D61" s="64"/>
     </row>
     <row r="62" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="66">
+      <c r="C62" s="63">
         <v>41422</v>
       </c>
-      <c r="D62" s="67"/>
+      <c r="D62" s="64"/>
     </row>
     <row r="63" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B63" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="66">
+      <c r="C63" s="63">
         <v>41422</v>
       </c>
-      <c r="D63" s="67"/>
-    </row>
-    <row r="64" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D63" s="64"/>
+    </row>
+    <row r="64" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B64" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="66">
+      <c r="C64" s="63">
         <v>41422</v>
       </c>
-      <c r="D64" s="67"/>
+      <c r="D64" s="64"/>
     </row>
     <row r="65" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B65" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="66">
+      <c r="C65" s="63">
         <v>41422</v>
       </c>
-      <c r="D65" s="67"/>
+      <c r="D65" s="64"/>
     </row>
     <row r="66" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B66" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="66">
+      <c r="C66" s="63">
         <v>41422</v>
       </c>
-      <c r="D66" s="67"/>
-    </row>
-    <row r="67" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D66" s="64"/>
+    </row>
+    <row r="67" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B67" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="66">
+      <c r="C67" s="63">
         <v>41422</v>
       </c>
-      <c r="D67" s="67"/>
+      <c r="D67" s="64"/>
     </row>
     <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B68" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="66">
+      <c r="C68" s="63">
         <v>41422</v>
       </c>
-      <c r="D68" s="67"/>
+      <c r="D68" s="64"/>
     </row>
     <row r="69" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B69" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="66">
+      <c r="C69" s="63">
         <v>41422</v>
       </c>
-      <c r="D69" s="67"/>
+      <c r="D69" s="64"/>
     </row>
     <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B70" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="66">
+      <c r="C70" s="63">
         <v>41422</v>
       </c>
-      <c r="D70" s="67"/>
-    </row>
-    <row r="71" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D70" s="64"/>
+    </row>
+    <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="66">
+      <c r="C71" s="63">
         <v>41422</v>
       </c>
-      <c r="D71" s="67"/>
+      <c r="D71" s="64"/>
     </row>
     <row r="72" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B72" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="66">
+      <c r="C72" s="63">
         <v>41422</v>
       </c>
-      <c r="D72" s="67"/>
+      <c r="D72" s="64"/>
+    </row>
+    <row r="73" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="63">
+        <v>41422</v>
+      </c>
+      <c r="D73" s="64"/>
+    </row>
+    <row r="74" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="63">
+        <v>41422</v>
+      </c>
+      <c r="D74" s="64"/>
+    </row>
+    <row r="75" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="63">
+        <v>41422</v>
+      </c>
+      <c r="D75" s="64"/>
+    </row>
+    <row r="76" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="63">
+        <v>41422</v>
+      </c>
+      <c r="D76" s="64"/>
+    </row>
+    <row r="77" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="63">
+        <v>41422</v>
+      </c>
+      <c r="D77" s="64"/>
+    </row>
+    <row r="78" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C58:D58"/>
+  <mergeCells count="61">
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A14:B14"/>
@@ -4251,17 +4513,35 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4358,86 +4638,86 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="64"/>
+      <c r="D11" s="68"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="68"/>
+      <c r="B27" s="65"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -4547,75 +4827,55 @@
       <c r="B43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="69"/>
+      <c r="D43" s="66"/>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="64"/>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
     </row>
     <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C43:D43"/>
@@ -4630,6 +4890,26 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4637,10 +4917,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4654,38 +4934,123 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>143</v>
       </c>
       <c r="F2" t="s">
         <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="276" windowWidth="15240" windowHeight="6048" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="270" windowWidth="15240" windowHeight="6045" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="GOAL" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Minuta Junta 1" sheetId="6" r:id="rId5"/>
     <sheet name="Minuta Junta 2" sheetId="7" r:id="rId6"/>
     <sheet name="Minuta Junta 3" sheetId="8" r:id="rId7"/>
-    <sheet name="Minuta" sheetId="5" r:id="rId8"/>
+    <sheet name="Minuta Junta 4" sheetId="5" r:id="rId8"/>
     <sheet name="INV" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="199">
   <si>
     <t>Measures</t>
   </si>
@@ -601,6 +601,36 @@
   </si>
   <si>
     <t>En la junta 6 se agregará la tarea de revisión con el coach de los checklist que se tengan para mejorarlos</t>
+  </si>
+  <si>
+    <t>Size Estimate</t>
+  </si>
+  <si>
+    <t>Determine Project Task</t>
+  </si>
+  <si>
+    <t>Overall Resource Estimate</t>
+  </si>
+  <si>
+    <t>Resource Availablility</t>
+  </si>
+  <si>
+    <t>Generate the Overall Plan</t>
+  </si>
+  <si>
+    <t>Review and Assess Plan</t>
+  </si>
+  <si>
+    <t>Infotec</t>
+  </si>
+  <si>
+    <t>Junta 4. Producir el plan general</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>El plan general elaborado cumple con la fecha requerida por Gerencia, por lo que no se generaron planes alternos</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1137,6 +1167,36 @@
     <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1155,6 +1215,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1167,45 +1236,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1513,16 +1544,16 @@
       <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="52.88671875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="42.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1530,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1538,21 +1569,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="58"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="69" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1596,7 @@
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="60"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
@@ -1582,7 +1613,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>145</v>
       </c>
@@ -1597,7 +1628,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>147</v>
       </c>
@@ -1612,7 +1643,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>148</v>
       </c>
@@ -1627,7 +1658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>151</v>
       </c>
@@ -1642,7 +1673,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>152</v>
       </c>
@@ -1657,13 +1688,13 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1693,37 +1724,37 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1747,18 +1778,18 @@
       <selection activeCell="B5" sqref="B5:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="21" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="2"/>
+    <col min="5" max="5" width="26.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1774,11 +1805,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.8" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1808,7 +1839,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="52" t="s">
         <v>150</v>
@@ -1830,7 +1861,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
@@ -1854,7 +1885,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="22"/>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="52" t="s">
         <v>146</v>
@@ -1876,7 +1907,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>13</v>
       </c>
@@ -1900,7 +1931,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="52" t="s">
         <v>150</v>
@@ -1922,7 +1953,7 @@
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="53" t="s">
         <v>146</v>
@@ -1944,7 +1975,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="52" t="s">
         <v>146</v>
@@ -1966,7 +1997,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="53" t="s">
         <v>109</v>
@@ -1988,7 +2019,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="52" t="s">
         <v>146</v>
@@ -1998,7 +2029,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="13" t="s">
         <v>10</v>
@@ -2008,7 +2039,7 @@
       <c r="E23" s="13"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="20" t="s">
         <v>11</v>
@@ -2018,7 +2049,7 @@
       <c r="E24" s="20"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="9" t="s">
         <v>10</v>
@@ -2028,7 +2059,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="20" t="s">
         <v>11</v>
@@ -2038,7 +2069,7 @@
       <c r="E26" s="20"/>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="9" t="s">
         <v>10</v>
@@ -2048,7 +2079,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="20" t="s">
         <v>11</v>
@@ -2058,7 +2089,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="9" t="s">
         <v>10</v>
@@ -2068,7 +2099,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="22"/>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="20" t="s">
         <v>11</v>
@@ -2078,7 +2109,7 @@
       <c r="E30" s="20"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="9" t="s">
         <v>10</v>
@@ -2088,7 +2119,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="20" t="s">
         <v>11</v>
@@ -2098,7 +2129,7 @@
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="9" t="s">
         <v>10</v>
@@ -2108,7 +2139,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
       <c r="B34" s="20" t="s">
         <v>11</v>
@@ -2118,7 +2149,7 @@
       <c r="E34" s="20"/>
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="9" t="s">
         <v>10</v>
@@ -2128,7 +2159,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="20" t="s">
         <v>11</v>
@@ -2138,7 +2169,7 @@
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="9" t="s">
         <v>10</v>
@@ -2148,7 +2179,7 @@
       <c r="E37" s="9"/>
       <c r="F37" s="22"/>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="20" t="s">
         <v>11</v>
@@ -2158,7 +2189,7 @@
       <c r="E38" s="20"/>
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2172,45 +2203,45 @@
       <selection activeCell="A4" sqref="A4:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
-    <col min="5" max="8" width="11.44140625" style="2"/>
-    <col min="9" max="9" width="21.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="25.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" style="2"/>
+    <col min="9" max="9" width="21.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -2407,17 +2438,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.109375" style="2"/>
-    <col min="4" max="4" width="20.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2"/>
-    <col min="7" max="7" width="22.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="34.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="14.109375" style="2"/>
+    <col min="1" max="3" width="14.140625" style="2"/>
+    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="2"/>
+    <col min="7" max="7" width="22.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="14.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2647,16 +2678,16 @@
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2701,7 @@
         <v>41421</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
@@ -2684,7 +2715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
@@ -2692,7 +2723,7 @@
         <v>41421</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>48</v>
       </c>
@@ -2706,23 +2737,23 @@
         <v>0.52152777777777781</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -2734,7 +2765,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -2746,120 +2777,120 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="68"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="68"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="68"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="68"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="68"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="68"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="s">
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="68"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68" t="s">
+      <c r="B18" s="73"/>
+      <c r="C18" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="68"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="65"/>
+      <c r="B27" s="78"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -2975,115 +3006,140 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="66"/>
-    </row>
-    <row r="44" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="D43" s="79"/>
+    </row>
+    <row r="44" spans="1:5" ht="153" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>85</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="63">
+      <c r="C44" s="76">
         <v>41423</v>
       </c>
-      <c r="D44" s="64"/>
-    </row>
-    <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D44" s="77"/>
+    </row>
+    <row r="45" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>80</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="64"/>
-    </row>
-    <row r="46" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D45" s="77"/>
+    </row>
+    <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="63">
+      <c r="C46" s="76">
         <v>41423</v>
       </c>
-      <c r="D46" s="64"/>
-    </row>
-    <row r="47" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="D46" s="77"/>
+    </row>
+    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="63">
+      <c r="C47" s="76">
         <v>41421</v>
       </c>
-      <c r="D47" s="64"/>
-    </row>
-    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="D47" s="77"/>
+    </row>
+    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="63">
+      <c r="C48" s="76">
         <v>41421</v>
       </c>
-      <c r="D48" s="64"/>
+      <c r="D48" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B7:J7"/>
@@ -3091,31 +3147,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3126,19 +3157,19 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
@@ -3152,7 +3183,7 @@
         <v>41421</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
@@ -3166,7 +3197,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
@@ -3174,7 +3205,7 @@
         <v>41421</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>48</v>
       </c>
@@ -3188,23 +3219,23 @@
         <v>0.81736111111111109</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -3216,7 +3247,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -3228,114 +3259,114 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="68"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="68"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="68"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="s">
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="68"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="68"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="68"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="65" t="s">
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="65"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="78"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>53</v>
       </c>
@@ -3352,7 +3383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="42">
         <v>0.55694444444444446</v>
@@ -3367,7 +3398,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="42">
         <v>0.56874999999999998</v>
@@ -3382,7 +3413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="42">
         <v>0.64166666666666672</v>
@@ -3397,7 +3428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="42">
         <v>0.64444444444444449</v>
@@ -3412,7 +3443,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="42">
         <v>0.71250000000000002</v>
@@ -3427,7 +3458,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="42">
         <v>0.72291666666666676</v>
@@ -3442,7 +3473,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="42">
         <v>0.73472222222222217</v>
@@ -3457,7 +3488,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="42">
         <v>0.77847222222222223</v>
@@ -3472,7 +3503,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="42">
         <v>0.78194444444444444</v>
@@ -3487,7 +3518,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="42">
         <v>0.80138888888888893</v>
@@ -3502,7 +3533,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="42">
         <v>0.80763888888888891</v>
@@ -3517,7 +3548,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="42">
         <v>0.81180555555555556</v>
@@ -3532,99 +3563,74 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="66"/>
-    </row>
-    <row r="44" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D43" s="79"/>
+    </row>
+    <row r="44" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="64"/>
-    </row>
-    <row r="45" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D44" s="77"/>
+    </row>
+    <row r="45" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>104</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="63">
+      <c r="C45" s="76">
         <v>41422</v>
       </c>
-      <c r="D45" s="64"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D45" s="77"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -3634,6 +3640,31 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3643,20 +3674,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
@@ -3670,7 +3701,7 @@
         <v>41422</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
@@ -3684,7 +3715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
@@ -3692,7 +3723,7 @@
         <v>41422</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>48</v>
       </c>
@@ -3706,23 +3737,23 @@
         <v>3.8194444444444441E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -3734,7 +3765,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -3746,114 +3777,114 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="68"/>
+      <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68" t="s">
+      <c r="B12" s="73"/>
+      <c r="C12" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="68"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="68"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="s">
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="68"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68" t="s">
+      <c r="B15" s="73"/>
+      <c r="C15" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="68"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="68"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="65"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="78"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
         <v>53</v>
       </c>
@@ -3948,140 +3979,140 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
-      <c r="B35" s="70">
+      <c r="B35" s="57">
         <v>0.38750000000000001</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="57">
         <v>0.53680555555555554</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="58" t="s">
         <v>155</v>
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
-      <c r="B36" s="70">
+      <c r="B36" s="57">
         <v>0.53749999999999998</v>
       </c>
-      <c r="C36" s="70">
+      <c r="C36" s="57">
         <v>0.57361111111111118</v>
       </c>
-      <c r="D36" s="71" t="s">
+      <c r="D36" s="58" t="s">
         <v>178</v>
       </c>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
-      <c r="B37" s="70">
+      <c r="B37" s="57">
         <v>0.65</v>
       </c>
-      <c r="C37" s="70">
+      <c r="C37" s="57">
         <v>0.73819444444444438</v>
       </c>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="58" t="s">
         <v>178</v>
       </c>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8"/>
-      <c r="B38" s="70">
+      <c r="B38" s="57">
         <v>0.74652777777777779</v>
       </c>
-      <c r="C38" s="70">
+      <c r="C38" s="57">
         <v>1.5277777777777777E-2</v>
       </c>
-      <c r="D38" s="71" t="s">
+      <c r="D38" s="58" t="s">
         <v>179</v>
       </c>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8"/>
-      <c r="B39" s="70">
+      <c r="B39" s="57">
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="C39" s="70">
+      <c r="C39" s="57">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="58" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8"/>
-      <c r="B40" s="72">
+      <c r="B40" s="59">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="59">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="60" t="s">
         <v>181</v>
       </c>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="49"/>
-      <c r="B41" s="74">
+      <c r="B41" s="61">
         <v>2.5694444444444447E-2</v>
       </c>
-      <c r="C41" s="74">
+      <c r="C41" s="61">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="62" t="s">
         <v>182</v>
       </c>
       <c r="E41" s="54" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="49"/>
-      <c r="B42" s="76">
+      <c r="B42" s="63">
         <v>2.9166666666666664E-2</v>
       </c>
-      <c r="C42" s="76">
+      <c r="C42" s="63">
         <v>3.6111111111111115E-2</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="64" t="s">
         <v>183</v>
       </c>
       <c r="E42" s="54"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="78"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="79"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="66"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="66"/>
-    </row>
-    <row r="45" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D44" s="79"/>
+    </row>
+    <row r="45" spans="1:5" ht="52.9" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>105</v>
       </c>
       <c r="B45" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="63">
+      <c r="C45" s="76">
         <v>41422</v>
       </c>
-      <c r="D45" s="64"/>
+      <c r="D45" s="77"/>
     </row>
     <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
@@ -4090,413 +4121,426 @@
       <c r="B46" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="63">
+      <c r="C46" s="76">
         <v>41422</v>
       </c>
-      <c r="D46" s="64"/>
-    </row>
-    <row r="47" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="D46" s="77"/>
+    </row>
+    <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>113</v>
       </c>
       <c r="B47" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="63">
+      <c r="C47" s="76">
         <v>41422</v>
       </c>
-      <c r="D47" s="64"/>
-    </row>
-    <row r="48" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="77"/>
+    </row>
+    <row r="48" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>111</v>
       </c>
       <c r="B48" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="63">
+      <c r="C48" s="76">
         <v>41422</v>
       </c>
-      <c r="D48" s="64"/>
-    </row>
-    <row r="49" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D48" s="77"/>
+    </row>
+    <row r="49" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>112</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="63">
+      <c r="C49" s="76">
         <v>41422</v>
       </c>
-      <c r="D49" s="64"/>
-    </row>
-    <row r="50" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D49" s="77"/>
+    </row>
+    <row r="50" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>114</v>
       </c>
       <c r="B50" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="63">
+      <c r="C50" s="76">
         <v>41422</v>
       </c>
-      <c r="D50" s="64"/>
-    </row>
-    <row r="51" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D50" s="77"/>
+    </row>
+    <row r="51" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>117</v>
       </c>
       <c r="B51" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C51" s="63">
+      <c r="C51" s="76">
         <v>41422</v>
       </c>
-      <c r="D51" s="64"/>
-    </row>
-    <row r="52" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D51" s="77"/>
+    </row>
+    <row r="52" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>115</v>
       </c>
       <c r="B52" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="63">
+      <c r="C52" s="76">
         <v>41422</v>
       </c>
-      <c r="D52" s="64"/>
-    </row>
-    <row r="53" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D52" s="77"/>
+    </row>
+    <row r="53" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>116</v>
       </c>
       <c r="B53" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="63">
+      <c r="C53" s="76">
         <v>41422</v>
       </c>
-      <c r="D53" s="64"/>
-    </row>
-    <row r="54" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D53" s="77"/>
+    </row>
+    <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="63">
+      <c r="C54" s="76">
         <v>41422</v>
       </c>
-      <c r="D54" s="64"/>
-    </row>
-    <row r="55" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D54" s="77"/>
+    </row>
+    <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
         <v>119</v>
       </c>
       <c r="B55" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="76">
         <v>41422</v>
       </c>
-      <c r="D55" s="64"/>
-    </row>
-    <row r="56" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D55" s="77"/>
+    </row>
+    <row r="56" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
         <v>120</v>
       </c>
       <c r="B56" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C56" s="76">
         <v>41422</v>
       </c>
-      <c r="D56" s="64"/>
-    </row>
-    <row r="57" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D56" s="77"/>
+    </row>
+    <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
         <v>121</v>
       </c>
       <c r="B57" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="63">
+      <c r="C57" s="76">
         <v>41422</v>
       </c>
-      <c r="D57" s="64"/>
-    </row>
-    <row r="58" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D57" s="77"/>
+    </row>
+    <row r="58" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
         <v>122</v>
       </c>
       <c r="B58" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C58" s="63">
+      <c r="C58" s="76">
         <v>41422</v>
       </c>
-      <c r="D58" s="64"/>
-    </row>
-    <row r="59" spans="1:4" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="D58" s="77"/>
+    </row>
+    <row r="59" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
         <v>185</v>
       </c>
       <c r="B59" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="63">
+      <c r="C59" s="76">
         <v>41422</v>
       </c>
-      <c r="D59" s="64"/>
-    </row>
-    <row r="60" spans="1:4" ht="66" x14ac:dyDescent="0.3">
+      <c r="D59" s="77"/>
+    </row>
+    <row r="60" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
         <v>186</v>
       </c>
       <c r="B60" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="63">
+      <c r="C60" s="76">
         <v>41422</v>
       </c>
-      <c r="D60" s="64"/>
-    </row>
-    <row r="61" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="D60" s="77"/>
+    </row>
+    <row r="61" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
         <v>123</v>
       </c>
       <c r="B61" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C61" s="63">
+      <c r="C61" s="76">
         <v>41422</v>
       </c>
-      <c r="D61" s="64"/>
-    </row>
-    <row r="62" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D61" s="77"/>
+    </row>
+    <row r="62" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
         <v>124</v>
       </c>
       <c r="B62" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="63">
+      <c r="C62" s="76">
         <v>41422</v>
       </c>
-      <c r="D62" s="64"/>
-    </row>
-    <row r="63" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D62" s="77"/>
+    </row>
+    <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
         <v>125</v>
       </c>
       <c r="B63" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="63">
+      <c r="C63" s="76">
         <v>41422</v>
       </c>
-      <c r="D63" s="64"/>
-    </row>
-    <row r="64" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D63" s="77"/>
+    </row>
+    <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
         <v>126</v>
       </c>
       <c r="B64" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="63">
+      <c r="C64" s="76">
         <v>41422</v>
       </c>
-      <c r="D64" s="64"/>
-    </row>
-    <row r="65" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D64" s="77"/>
+    </row>
+    <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
         <v>127</v>
       </c>
       <c r="B65" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="63">
+      <c r="C65" s="76">
         <v>41422</v>
       </c>
-      <c r="D65" s="64"/>
-    </row>
-    <row r="66" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D65" s="77"/>
+    </row>
+    <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
         <v>128</v>
       </c>
       <c r="B66" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="63">
+      <c r="C66" s="76">
         <v>41422</v>
       </c>
-      <c r="D66" s="64"/>
-    </row>
-    <row r="67" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D66" s="77"/>
+    </row>
+    <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
         <v>129</v>
       </c>
       <c r="B67" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="63">
+      <c r="C67" s="76">
         <v>41422</v>
       </c>
-      <c r="D67" s="64"/>
-    </row>
-    <row r="68" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D67" s="77"/>
+    </row>
+    <row r="68" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
         <v>130</v>
       </c>
       <c r="B68" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="63">
+      <c r="C68" s="76">
         <v>41422</v>
       </c>
-      <c r="D68" s="64"/>
-    </row>
-    <row r="69" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D68" s="77"/>
+    </row>
+    <row r="69" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
         <v>131</v>
       </c>
       <c r="B69" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="63">
+      <c r="C69" s="76">
         <v>41422</v>
       </c>
-      <c r="D69" s="64"/>
-    </row>
-    <row r="70" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D69" s="77"/>
+    </row>
+    <row r="70" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
         <v>132</v>
       </c>
       <c r="B70" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="63">
+      <c r="C70" s="76">
         <v>41422</v>
       </c>
-      <c r="D70" s="64"/>
-    </row>
-    <row r="71" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D70" s="77"/>
+    </row>
+    <row r="71" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
         <v>156</v>
       </c>
       <c r="B71" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="63">
+      <c r="C71" s="76">
         <v>41422</v>
       </c>
-      <c r="D71" s="64"/>
-    </row>
-    <row r="72" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D71" s="77"/>
+    </row>
+    <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
         <v>133</v>
       </c>
       <c r="B72" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="63">
+      <c r="C72" s="76">
         <v>41422</v>
       </c>
-      <c r="D72" s="64"/>
-    </row>
-    <row r="73" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D72" s="77"/>
+    </row>
+    <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
         <v>134</v>
       </c>
       <c r="B73" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C73" s="63">
+      <c r="C73" s="76">
         <v>41422</v>
       </c>
-      <c r="D73" s="64"/>
-    </row>
-    <row r="74" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="D73" s="77"/>
+    </row>
+    <row r="74" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
         <v>157</v>
       </c>
       <c r="B74" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="63">
+      <c r="C74" s="76">
         <v>41422</v>
       </c>
-      <c r="D74" s="64"/>
-    </row>
-    <row r="75" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D74" s="77"/>
+    </row>
+    <row r="75" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>158</v>
       </c>
       <c r="B75" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="63">
+      <c r="C75" s="76">
         <v>41422</v>
       </c>
-      <c r="D75" s="64"/>
-    </row>
-    <row r="76" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D75" s="77"/>
+    </row>
+    <row r="76" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
         <v>187</v>
       </c>
       <c r="B76" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C76" s="63">
+      <c r="C76" s="76">
         <v>41422</v>
       </c>
-      <c r="D76" s="64"/>
-    </row>
-    <row r="77" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="D76" s="77"/>
+    </row>
+    <row r="77" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
         <v>160</v>
       </c>
       <c r="B77" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="63">
+      <c r="C77" s="76">
         <v>41422</v>
       </c>
-      <c r="D77" s="64"/>
-    </row>
-    <row r="78" spans="1:4" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="D77" s="77"/>
+    </row>
+    <row r="78" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
         <v>188</v>
       </c>
       <c r="B78" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="63" t="s">
+      <c r="C78" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="D78" s="64"/>
+      <c r="D78" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
@@ -4513,35 +4557,22 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4552,63 +4583,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="2"/>
-    <col min="4" max="4" width="37.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="C2" s="30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>48</v>
       </c>
+      <c r="B4" s="80">
+        <v>4.7916666666666663E-2</v>
+      </c>
       <c r="C4" s="30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="D4" s="80">
+        <v>0.11319444444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -4620,7 +4674,7 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -4632,92 +4686,112 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="68"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="67"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
+      <c r="D11" s="74"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="74"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="74"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="74"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="74"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="74"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="65"/>
+      <c r="B27" s="78"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -4738,70 +4812,120 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="39">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="C29" s="39">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>96</v>
+      </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="39">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="C30" s="39">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>97</v>
+      </c>
       <c r="E30" s="9"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="39">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="C32" s="39">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="39">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="C33" s="39">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>191</v>
+      </c>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="39">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="C34" s="39">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="E34" s="9"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="39">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="C35" s="39">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>193</v>
+      </c>
       <c r="E35" s="9"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="39">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>194</v>
+      </c>
       <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="39">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C37" s="39">
+        <v>0.11319444444444444</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -4820,62 +4944,84 @@
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="66"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="D43" s="79"/>
+    </row>
+    <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="64"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C43:D43"/>
@@ -4892,24 +5038,6 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4923,21 +5051,21 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -4960,7 +5088,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -4968,87 +5096,87 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>177</v>
       </c>

--- a/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="270" windowWidth="15240" windowHeight="6045" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="330" windowWidth="15240" windowHeight="5985" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="GOAL" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="Minuta Junta 3" sheetId="8" r:id="rId7"/>
     <sheet name="Minuta Junta 4" sheetId="5" r:id="rId8"/>
     <sheet name="INV" sheetId="9" r:id="rId9"/>
+    <sheet name="Minuta Junta 6" sheetId="10" r:id="rId10"/>
+    <sheet name="Minuta Junta 7" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="231">
   <si>
     <t>Measures</t>
   </si>
@@ -103,12 +105,6 @@
   </si>
   <si>
     <t>Personal/Team</t>
-  </si>
-  <si>
-    <t>Risk/Issue</t>
-  </si>
-  <si>
-    <t>Impact</t>
   </si>
   <si>
     <t>Likelihood</t>
@@ -632,12 +628,122 @@
   <si>
     <t>El plan general elaborado cumple con la fecha requerida por Gerencia, por lo que no se generaron planes alternos</t>
   </si>
+  <si>
+    <t>Junta 6. Producir un plan balanceado para la siguiente fase o ciclo</t>
+  </si>
+  <si>
+    <t>Allocate Tasks to Team Members</t>
+  </si>
+  <si>
+    <t>Build Bottom-up Plans</t>
+  </si>
+  <si>
+    <t>Review and Rebalance Team Workload</t>
+  </si>
+  <si>
+    <t>Produce the Next-Phase or Cycle Development Plan</t>
+  </si>
+  <si>
+    <t>Junta 7. Producir un plan de seguimiento de riesgos del proyecto</t>
+  </si>
+  <si>
+    <t>Risk Identification</t>
+  </si>
+  <si>
+    <t>No se realizó acuerdo alguno pendiente.</t>
+  </si>
+  <si>
+    <t>Risk Mitigation</t>
+  </si>
+  <si>
+    <t>Probabilidad
+3=L
+6=M
+9=H</t>
+  </si>
+  <si>
+    <t>Impact
+3=L
+6=M
+9=H</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Acción de mitigación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las funcionalidades cubiertas son menos a las esperadas </t>
+  </si>
+  <si>
+    <t>TEAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar a managmente para renegociar el alcance del proyecto </t>
+  </si>
+  <si>
+    <t>No gestionar el desarrollo de la herramienta como proyecto redundará en retraso y no alcanzar el objetivo planteado.</t>
+  </si>
+  <si>
+    <t>Mala estimación de tiempo y tamaño</t>
+  </si>
+  <si>
+    <t>Evaluar un incremento en la productivdad/task hours-, en caso negativo solicitar apoyo</t>
+  </si>
+  <si>
+    <t>Falta de especificación de los requerimientos faltantes</t>
+  </si>
+  <si>
+    <t>Obtener las especificaciones de los requerimientos faltantes</t>
+  </si>
+  <si>
+    <t>Ausencia prolongada de algún integrante del equipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> incumplimiento de las task hours planeadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Incumplimiento de las task hours planeadas ocasionado por mayor tiempo de mantenimiento al planeado</t>
+  </si>
+  <si>
+    <t>1.- Rebalancear carga de trabajo
+2.- Incrementar la productividad
+3.- Soliicitar apoyo a management para reasignar trabajos de mantenimiento</t>
+  </si>
+  <si>
+    <t>El tamaño real de los requerimientos no definidos sea más grande que el estimado</t>
+  </si>
+  <si>
+    <t>Retrasos de entrega de los insumos de diseño gráfico</t>
+  </si>
+  <si>
+    <t>Informar a managmente para para obtener los insumos requeridos</t>
+  </si>
+  <si>
+    <t>No recibir ayuda oportuna de management para asignar más recursos</t>
+  </si>
+  <si>
+    <t>Junta semanal</t>
+  </si>
+  <si>
+    <t>Preparación para Junta semanal</t>
+  </si>
+  <si>
+    <t>Daily Scrum</t>
+  </si>
+  <si>
+    <t>Hr</t>
+  </si>
+  <si>
+    <t>Diaria</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,13 +815,32 @@
       <color rgb="FF000000"/>
       <name val="Teen"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Teen"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="26">
@@ -1025,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1197,6 +1322,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1215,6 +1347,18 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1224,19 +1368,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1572,15 +1716,15 @@
     <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="71"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="69" t="s">
-        <v>154</v>
+      <c r="E4" s="72" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1596,96 +1740,96 @@
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="70"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" s="46">
         <v>1</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" s="45">
         <v>41578</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="47" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E7" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="46">
         <v>0.9</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B10" s="46">
         <v>1</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1764,6 +1908,894 @@
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.11319444444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="81"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="81"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="81"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="81"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="81"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="78"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="54"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.44027777777777777</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="54"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="54"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="54"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C33" s="39"/>
+      <c r="D33" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="54"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="54"/>
+    </row>
+    <row r="35" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="49"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="79"/>
+    </row>
+    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.5625</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.70486111111111116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="81"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="81"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="81"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="81"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="81"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="78"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.5625</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.5625</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="79"/>
+    </row>
+    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1832,7 +2864,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1842,7 +2874,7 @@
     <row r="6" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1854,7 +2886,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1866,7 +2898,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -1878,7 +2910,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1888,7 +2920,7 @@
     <row r="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="15"/>
       <c r="B10" s="52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -1900,7 +2932,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1912,7 +2944,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -1924,7 +2956,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1934,7 +2966,7 @@
     <row r="14" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -1946,7 +2978,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1956,7 +2988,7 @@
     <row r="16" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -1968,7 +3000,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1978,7 +3010,7 @@
     <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15"/>
       <c r="B18" s="52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -1990,7 +3022,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2000,7 +3032,7 @@
     <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="53" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2012,7 +3044,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2022,7 +3054,7 @@
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -2197,17 +3229,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
     <col min="5" max="8" width="11.42578125" style="2"/>
     <col min="9" max="9" width="21.140625" style="2" customWidth="1"/>
@@ -2215,40 +3247,40 @@
     <col min="11" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+    </row>
+    <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>7</v>
@@ -2256,158 +3288,368 @@
       <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="J4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
+      <c r="L4" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>1</v>
+      </c>
+      <c r="B5" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="27">
+        <v>9</v>
+      </c>
+      <c r="F5" s="27">
+        <v>9</v>
+      </c>
+      <c r="G5" s="27">
+        <f>E5*F5</f>
+        <v>81</v>
+      </c>
       <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="I5" s="27" t="s">
+        <v>107</v>
+      </c>
       <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>2</v>
+      </c>
+      <c r="B6" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E6" s="27">
+        <v>3</v>
+      </c>
+      <c r="F6" s="27">
+        <v>3</v>
+      </c>
+      <c r="G6" s="27">
+        <f t="shared" ref="G6:G15" si="0">E6*F6</f>
+        <v>9</v>
+      </c>
       <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="I6" s="27" t="s">
+        <v>107</v>
+      </c>
       <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="K6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>3</v>
+      </c>
+      <c r="B7" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="27">
+        <v>6</v>
+      </c>
+      <c r="F7" s="27">
+        <v>9</v>
+      </c>
+      <c r="G7" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="I7" s="27" t="s">
+        <v>144</v>
+      </c>
       <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>4</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" s="27">
+        <v>9</v>
+      </c>
+      <c r="F8" s="27">
+        <v>9</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="I8" s="27" t="s">
+        <v>107</v>
+      </c>
       <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>5</v>
+      </c>
+      <c r="B9" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" s="27">
+        <v>3</v>
+      </c>
+      <c r="F9" s="27">
+        <v>6</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="I9" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>6</v>
+      </c>
+      <c r="B10" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="27">
+        <v>3</v>
+      </c>
+      <c r="F10" s="27">
+        <v>9</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
       <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
+      <c r="I10" s="27" t="s">
+        <v>144</v>
+      </c>
       <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="216.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>7</v>
+      </c>
+      <c r="B11" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="27">
+        <v>6</v>
+      </c>
+      <c r="F11" s="27">
+        <v>6</v>
+      </c>
+      <c r="G11" s="27">
+        <f>E11*F11</f>
+        <v>36</v>
+      </c>
       <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="27" t="s">
+        <v>144</v>
+      </c>
       <c r="J11" s="27"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="84" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>8</v>
+      </c>
+      <c r="B12" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E12" s="27">
+        <v>6</v>
+      </c>
+      <c r="F12" s="27">
+        <v>9</v>
+      </c>
+      <c r="G12" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="I12" s="27" t="s">
+        <v>148</v>
+      </c>
       <c r="J12" s="27"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>9</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="27">
+        <v>9</v>
+      </c>
+      <c r="F13" s="27">
+        <v>6</v>
+      </c>
+      <c r="G13" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
       <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="I13" s="27" t="s">
+        <v>107</v>
+      </c>
       <c r="J13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="84" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>10</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="85">
+        <v>41424</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="27">
+        <v>3</v>
+      </c>
+      <c r="F14" s="27">
+        <v>6</v>
+      </c>
+      <c r="G14" s="27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="I14" s="27" t="s">
+        <v>107</v>
+      </c>
       <c r="J14" s="27"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>11</v>
+      </c>
+      <c r="B15" s="86"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
@@ -2459,7 +3701,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="30"/>
     </row>
@@ -2471,7 +3713,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2479,34 +3721,34 @@
         <v>7</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="I6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="K6" s="32" t="s">
         <v>42</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2674,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2692,7 +3934,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -2703,21 +3945,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="40">
         <v>41421</v>
@@ -2725,13 +3967,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="41">
         <v>0.45069444444444445</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="41">
         <v>0.52152777777777781</v>
@@ -2739,19 +3981,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+        <v>48</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -2779,134 +4021,134 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="74"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="81"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="81"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="74"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74" t="s">
+      <c r="D14" s="81"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="74"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="74"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="D15" s="81"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="81"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="74"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="74"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+      <c r="D17" s="81"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74" t="s">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="74"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="74"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="78"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2918,10 +4160,10 @@
         <v>11.04</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2933,10 +4175,10 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2948,10 +4190,10 @@
         <v>0.48055555555555557</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2963,10 +4205,10 @@
         <v>0.49583333333333335</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2978,10 +4220,10 @@
         <v>0.50208333333333333</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2993,10 +4235,10 @@
         <v>0.52152777777777781</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3043,22 +4285,22 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="79" t="s">
         <v>59</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="79" t="s">
-        <v>61</v>
       </c>
       <c r="D43" s="79"/>
     </row>
     <row r="44" spans="1:5" ht="153" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="76">
         <v>41423</v>
@@ -3067,22 +4309,22 @@
     </row>
     <row r="45" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="77" t="s">
         <v>84</v>
-      </c>
-      <c r="C45" s="77" t="s">
-        <v>86</v>
       </c>
       <c r="D45" s="77"/>
     </row>
     <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="76">
         <v>41423</v>
@@ -3091,10 +4333,10 @@
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="76">
         <v>41421</v>
@@ -3103,10 +4345,10 @@
     </row>
     <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C48" s="76">
         <v>41421</v>
@@ -3115,6 +4357,31 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -3122,31 +4389,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3174,7 +4416,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -3185,21 +4427,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="40">
         <v>41421</v>
@@ -3207,13 +4449,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="55">
         <v>0.55694444444444446</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="55">
         <v>0.81736111111111109</v>
@@ -3221,19 +4463,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+        <v>48</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -3261,126 +4503,126 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="74"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="81"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74" t="s">
+      <c r="A12" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="81"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="74"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="81"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="74"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="74"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="D15" s="81"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="74"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="78"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3392,10 +4634,10 @@
         <v>0.56805555555555554</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3407,10 +4649,10 @@
         <v>0.5708333333333333</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3422,10 +4664,10 @@
         <v>0.6430555555555556</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3437,10 +4679,10 @@
         <v>0.70347222222222217</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3452,10 +4694,10 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3467,10 +4709,10 @@
         <v>0.73472222222222217</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3482,10 +4724,10 @@
         <v>0.77013888888888893</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3497,10 +4739,10 @@
         <v>0.78125</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3512,10 +4754,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3527,10 +4769,10 @@
         <v>0.80763888888888891</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3542,10 +4784,10 @@
         <v>0.81180555555555556</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3557,42 +4799,42 @@
         <v>0.81736111111111109</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="79" t="s">
         <v>59</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="79" t="s">
-        <v>61</v>
       </c>
       <c r="D43" s="79"/>
     </row>
     <row r="44" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D44" s="77"/>
     </row>
     <row r="45" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" s="76">
         <v>41422</v>
@@ -3631,6 +4873,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -3640,31 +4907,6 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3692,7 +4934,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -3703,21 +4945,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="40">
         <v>41422</v>
@@ -3725,13 +4967,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="55">
         <v>0.3979166666666667</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="55">
         <v>3.8194444444444441E-2</v>
@@ -3739,19 +4981,19 @@
     </row>
     <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+        <v>48</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -3779,126 +5021,126 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="74"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74" t="s">
+      <c r="A12" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="81"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="74"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="81"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="74"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="74"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="D15" s="81"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="74"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="78"/>
     </row>
     <row r="28" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3910,7 +5152,7 @@
         <v>0.39930555555555558</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" s="9"/>
     </row>
@@ -3923,7 +5165,7 @@
         <v>0.40625</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="9"/>
     </row>
@@ -3936,7 +5178,7 @@
         <v>0.47083333333333338</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E31" s="9"/>
     </row>
@@ -3949,7 +5191,7 @@
         <v>0.57500000000000007</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E32" s="9"/>
     </row>
@@ -3962,7 +5204,7 @@
         <v>0.67847222222222225</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E33" s="9"/>
     </row>
@@ -3975,7 +5217,7 @@
         <v>0.87916666666666676</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E34" s="9"/>
     </row>
@@ -3988,7 +5230,7 @@
         <v>0.53680555555555554</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E35" s="9"/>
     </row>
@@ -4001,7 +5243,7 @@
         <v>0.57361111111111118</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E36" s="9"/>
     </row>
@@ -4014,7 +5256,7 @@
         <v>0.73819444444444438</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E37" s="9"/>
     </row>
@@ -4027,7 +5269,7 @@
         <v>1.5277777777777777E-2</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E38" s="9"/>
     </row>
@@ -4040,7 +5282,7 @@
         <v>1.9444444444444445E-2</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E39" s="9"/>
     </row>
@@ -4053,7 +5295,7 @@
         <v>2.5694444444444447E-2</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E40" s="9"/>
     </row>
@@ -4066,13 +5308,13 @@
         <v>2.9166666666666664E-2</v>
       </c>
       <c r="D41" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="E41" s="54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49"/>
       <c r="B42" s="63">
         <v>2.9166666666666664E-2</v>
@@ -4081,45 +5323,45 @@
         <v>3.6111111111111115E-2</v>
       </c>
       <c r="D42" s="64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E42" s="54"/>
     </row>
-    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="65"/>
       <c r="C43" s="65"/>
       <c r="D43" s="66"/>
     </row>
-    <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="79" t="s">
-        <v>61</v>
-      </c>
       <c r="D44" s="79"/>
     </row>
-    <row r="45" spans="1:5" ht="52.9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C45" s="76">
         <v>41422</v>
       </c>
       <c r="D45" s="77"/>
     </row>
-    <row r="46" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="76">
         <v>41422</v>
@@ -4128,10 +5370,10 @@
     </row>
     <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" s="76">
         <v>41422</v>
@@ -4140,10 +5382,10 @@
     </row>
     <row r="48" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C48" s="76">
         <v>41422</v>
@@ -4152,10 +5394,10 @@
     </row>
     <row r="49" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" s="76">
         <v>41422</v>
@@ -4164,10 +5406,10 @@
     </row>
     <row r="50" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C50" s="76">
         <v>41422</v>
@@ -4176,10 +5418,10 @@
     </row>
     <row r="51" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C51" s="76">
         <v>41422</v>
@@ -4188,10 +5430,10 @@
     </row>
     <row r="52" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C52" s="76">
         <v>41422</v>
@@ -4200,10 +5442,10 @@
     </row>
     <row r="53" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C53" s="76">
         <v>41422</v>
@@ -4212,10 +5454,10 @@
     </row>
     <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" s="76">
         <v>41422</v>
@@ -4224,10 +5466,10 @@
     </row>
     <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C55" s="76">
         <v>41422</v>
@@ -4236,10 +5478,10 @@
     </row>
     <row r="56" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C56" s="76">
         <v>41422</v>
@@ -4248,10 +5490,10 @@
     </row>
     <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C57" s="76">
         <v>41422</v>
@@ -4260,10 +5502,10 @@
     </row>
     <row r="58" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C58" s="76">
         <v>41422</v>
@@ -4272,10 +5514,10 @@
     </row>
     <row r="59" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C59" s="76">
         <v>41422</v>
@@ -4284,10 +5526,10 @@
     </row>
     <row r="60" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="76">
         <v>41422</v>
@@ -4296,10 +5538,10 @@
     </row>
     <row r="61" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C61" s="76">
         <v>41422</v>
@@ -4308,10 +5550,10 @@
     </row>
     <row r="62" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C62" s="76">
         <v>41422</v>
@@ -4320,10 +5562,10 @@
     </row>
     <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C63" s="76">
         <v>41422</v>
@@ -4332,10 +5574,10 @@
     </row>
     <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C64" s="76">
         <v>41422</v>
@@ -4344,10 +5586,10 @@
     </row>
     <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C65" s="76">
         <v>41422</v>
@@ -4356,10 +5598,10 @@
     </row>
     <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C66" s="76">
         <v>41422</v>
@@ -4368,10 +5610,10 @@
     </row>
     <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C67" s="76">
         <v>41422</v>
@@ -4380,10 +5622,10 @@
     </row>
     <row r="68" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C68" s="76">
         <v>41422</v>
@@ -4392,10 +5634,10 @@
     </row>
     <row r="69" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C69" s="76">
         <v>41422</v>
@@ -4404,10 +5646,10 @@
     </row>
     <row r="70" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C70" s="76">
         <v>41422</v>
@@ -4416,10 +5658,10 @@
     </row>
     <row r="71" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C71" s="76">
         <v>41422</v>
@@ -4428,10 +5670,10 @@
     </row>
     <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C72" s="76">
         <v>41422</v>
@@ -4440,10 +5682,10 @@
     </row>
     <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C73" s="76">
         <v>41422</v>
@@ -4452,10 +5694,10 @@
     </row>
     <row r="74" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C74" s="76">
         <v>41422</v>
@@ -4464,10 +5706,10 @@
     </row>
     <row r="75" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C75" s="76">
         <v>41422</v>
@@ -4476,10 +5718,10 @@
     </row>
     <row r="76" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C76" s="76">
         <v>41422</v>
@@ -4488,10 +5730,10 @@
     </row>
     <row r="77" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C77" s="76">
         <v>41422</v>
@@ -4500,47 +5742,34 @@
     </row>
     <row r="78" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C78" s="76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D78" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
@@ -4557,22 +5786,35 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4583,8 +5825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4601,7 +5843,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>7</v>
@@ -4612,21 +5854,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="40">
         <v>41424</v>
@@ -4634,33 +5876,33 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="80">
+        <v>46</v>
+      </c>
+      <c r="B4" s="69">
         <v>4.7916666666666663E-2</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="80">
+        <v>47</v>
+      </c>
+      <c r="D4" s="69">
         <v>0.11319444444444444</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+        <v>48</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -4688,126 +5930,126 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="74"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="81"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74" t="s">
+      <c r="A12" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="81"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="74"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="D13" s="81"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="81"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="74"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="74"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
+      <c r="D15" s="81"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="74"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="81"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="78"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="D28" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="E28" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4819,7 +6061,7 @@
         <v>4.8611111111111112E-2</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E29" s="9"/>
     </row>
@@ -4832,7 +6074,7 @@
         <v>4.9305555555555554E-2</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="9"/>
     </row>
@@ -4841,7 +6083,7 @@
       <c r="B31" s="39"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E31" s="9"/>
     </row>
@@ -4854,7 +6096,7 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E32" s="9"/>
     </row>
@@ -4867,7 +6109,7 @@
         <v>7.7083333333333337E-2</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E33" s="9"/>
     </row>
@@ -4880,7 +6122,7 @@
         <v>9.1666666666666674E-2</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E34" s="9"/>
     </row>
@@ -4893,7 +6135,7 @@
         <v>0.10555555555555556</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E35" s="9"/>
     </row>
@@ -4906,7 +6148,7 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E36" s="9"/>
     </row>
@@ -4919,7 +6161,7 @@
         <v>0.11319444444444444</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E37" s="9"/>
     </row>
@@ -4946,22 +6188,22 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="79" t="s">
         <v>59</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="79" t="s">
-        <v>61</v>
       </c>
       <c r="D43" s="79"/>
     </row>
     <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C44" s="77"/>
       <c r="D44" s="77"/>
@@ -5004,6 +6246,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -5020,24 +6280,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5045,10 +6287,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5062,126 +6304,367 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" s="88" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>228</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>171</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>173</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="89">
+        <v>41453</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="89">
+        <v>41432</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="89">
+        <v>41439</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>177</v>
-      </c>
-    </row>
+        <v>166</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="89">
+        <v>41432</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="89">
+        <v>41432</v>
+      </c>
+      <c r="F21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D22" s="89">
+        <v>41439</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="330" windowWidth="15240" windowHeight="5985" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="330" windowWidth="15240" windowHeight="5985" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="GOAL" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="231">
   <si>
     <t>Measures</t>
   </si>
@@ -1918,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,9 +1977,7 @@
       <c r="C4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="69">
-        <v>0.11319444444444444</v>
-      </c>
+      <c r="D4" s="69"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2202,7 +2200,9 @@
       <c r="B33" s="39">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C33" s="39"/>
+      <c r="C33" s="39">
+        <v>0.8125</v>
+      </c>
       <c r="D33" s="54" t="s">
         <v>199</v>
       </c>
@@ -2210,8 +2210,12 @@
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="49"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="39">
+        <v>0.8125</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.83194444444444438</v>
+      </c>
       <c r="D34" s="54" t="s">
         <v>200</v>
       </c>
@@ -2219,8 +2223,12 @@
     </row>
     <row r="35" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="49"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="39">
+        <v>0.83194444444444438</v>
+      </c>
+      <c r="C35" s="39">
+        <v>0.8354166666666667</v>
+      </c>
       <c r="D35" s="54" t="s">
         <v>201</v>
       </c>
@@ -2228,7 +2236,9 @@
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="49"/>
-      <c r="B36" s="39"/>
+      <c r="B36" s="39">
+        <v>0.8354166666666667</v>
+      </c>
       <c r="C36" s="39"/>
       <c r="D36" s="54" t="s">
         <v>77</v>
@@ -2268,13 +2278,9 @@
       </c>
       <c r="D42" s="79"/>
     </row>
-    <row r="43" spans="1:5" ht="51" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>195</v>
-      </c>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="77"/>
       <c r="D43" s="77"/>
     </row>
@@ -6289,13 +6295,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -6620,13 +6626,16 @@
         <v>41439</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>160</v>
       </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
       <c r="F23" t="s">
         <v>107</v>
       </c>
@@ -6635,6 +6644,9 @@
       <c r="A24" t="s">
         <v>161</v>
       </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
       <c r="F24" t="s">
         <v>148</v>
       </c>
@@ -6643,6 +6655,9 @@
       <c r="A25" t="s">
         <v>162</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
       <c r="F25" t="s">
         <v>148</v>
       </c>
@@ -6651,8 +6666,11 @@
       <c r="A26" t="s">
         <v>167</v>
       </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>

--- a/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="330" windowWidth="15240" windowHeight="5985" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="330" windowWidth="15240" windowHeight="5985" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="GOAL" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,18 @@
     <sheet name="INV" sheetId="9" r:id="rId9"/>
     <sheet name="Minuta Junta 6" sheetId="10" r:id="rId10"/>
     <sheet name="Minuta Junta 7" sheetId="11" r:id="rId11"/>
+    <sheet name="Minuta Junta 5" sheetId="12" r:id="rId12"/>
+    <sheet name="Minuta Junta 8" sheetId="13" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ITL Riesgos'!$A$4:$L$16</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="249">
   <si>
     <t>Measures</t>
   </si>
@@ -737,6 +742,60 @@
   </si>
   <si>
     <t>Diaria</t>
+  </si>
+  <si>
+    <t>Relanzamiento ciclo 2</t>
+  </si>
+  <si>
+    <t>CIRI, MEJS, JRJN</t>
+  </si>
+  <si>
+    <t>Meeting role</t>
+  </si>
+  <si>
+    <t>Quality goals</t>
+  </si>
+  <si>
+    <t>coach</t>
+  </si>
+  <si>
+    <t>estimate defects removed</t>
+  </si>
+  <si>
+    <t>estimate  defects inyected</t>
+  </si>
+  <si>
+    <t>produce the quality plan</t>
+  </si>
+  <si>
+    <t>launch meeting documentation</t>
+  </si>
+  <si>
+    <t>Generar la definición de defectos menores y defectos mayores</t>
+  </si>
+  <si>
+    <t>Junta 7. Producir un plan de calidad</t>
+  </si>
+  <si>
+    <t>Junta 8. Prepararse para la reunión con la gerencia</t>
+  </si>
+  <si>
+    <t>Carlos presentará las primeras 3 diapositivas de la presentación</t>
+  </si>
+  <si>
+    <t>Martha  presentará las primeras 3 diapositivas de la presentación</t>
+  </si>
+  <si>
+    <t>José  presentará las primeras 3 diapositivas de la presentación</t>
+  </si>
+  <si>
+    <t>Planning for the Management Meeting</t>
+  </si>
+  <si>
+    <t>lider</t>
+  </si>
+  <si>
+    <t>Management Meeting Preparation</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1329,6 +1388,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1347,6 +1434,15 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1359,28 +1455,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1685,7 +1759,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,14 +1790,14 @@
     <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="84" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1740,7 +1814,7 @@
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="85"/>
     </row>
     <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
@@ -1817,7 +1891,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>150</v>
       </c>
@@ -1832,13 +1906,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1918,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,17 +2057,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -2025,106 +2099,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="93"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -2239,7 +2313,9 @@
       <c r="B36" s="39">
         <v>0.8354166666666667</v>
       </c>
-      <c r="C36" s="39"/>
+      <c r="C36" s="39">
+        <v>0.84583333333333333</v>
+      </c>
       <c r="D36" s="54" t="s">
         <v>77</v>
       </c>
@@ -2273,55 +2349,86 @@
       <c r="B42" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="C42" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="79"/>
+      <c r="D42" s="94"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
+      <c r="A43" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="91">
+        <v>41490</v>
+      </c>
+      <c r="D43" s="92"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
@@ -2331,6 +2438,894 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.5625</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.70486111111111116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="89"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="89"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="89"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="89"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="89"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="93"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.5625</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.5625</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.70277777777777783</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="94"/>
+    </row>
+    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.91527777777777775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="89"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="89"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="89"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="89"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="89"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="93"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C35" s="39">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="94"/>
+    </row>
+    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="91">
+        <v>41432</v>
+      </c>
+      <c r="D42" s="92"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="A21:B21"/>
@@ -2349,24 +3344,24 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2397,7 +3392,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>44</v>
@@ -2419,54 +3414,54 @@
         <v>46</v>
       </c>
       <c r="B4" s="69">
-        <v>0.5625</v>
+        <v>0.9375</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="69">
-        <v>0.70486111111111116</v>
+        <v>5.4166666666666669E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="B7" s="90" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2474,106 +3469,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="93"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -2595,92 +3590,84 @@
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="39">
-        <v>0.56180555555555556</v>
+        <v>0.9375</v>
       </c>
       <c r="C29" s="39">
-        <v>0.5625</v>
+        <v>0.93819444444444444</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="E29" s="54" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="39">
-        <v>0.5625</v>
+        <v>0.93819444444444444</v>
       </c>
       <c r="C30" s="39">
-        <v>0.56458333333333333</v>
+        <v>0.93958333333333333</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="39">
-        <v>0.56527777777777777</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="C31" s="39">
-        <v>0.57638888888888895</v>
+        <v>0.99305555555555547</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
       <c r="B32" s="39">
-        <v>0.64583333333333337</v>
+        <v>0.99375000000000002</v>
       </c>
       <c r="C32" s="39">
-        <v>0.69097222222222221</v>
+        <v>5.0694444444444452E-2</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="49"/>
       <c r="B33" s="39">
-        <v>0.69097222222222221</v>
+        <v>5.0694444444444452E-2</v>
       </c>
       <c r="C33" s="39">
-        <v>0.70208333333333339</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="49"/>
-      <c r="B34" s="39">
-        <v>0.70277777777777783</v>
-      </c>
-      <c r="C34" s="39">
-        <v>0.70486111111111116</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>97</v>
-      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="49"/>
@@ -2711,60 +3698,64 @@
       <c r="E38" s="54"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="68" t="s">
+      <c r="B41" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="79"/>
-    </row>
-    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>204</v>
+      <c r="D41" s="94"/>
+    </row>
+    <row r="42" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
+        <v>243</v>
       </c>
       <c r="B42" s="38"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+    </row>
+    <row r="43" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="49" t="s">
+        <v>244</v>
+      </c>
       <c r="B43" s="38"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+    </row>
+    <row r="44" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
+        <v>245</v>
+      </c>
       <c r="B44" s="38"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -2804,7 +3795,6 @@
     <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3001,7 +3991,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
@@ -3013,7 +4003,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="52" t="s">
         <v>144</v>
@@ -3023,7 +4013,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
@@ -3035,7 +4025,7 @@
       <c r="E19" s="13"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="53" t="s">
         <v>107</v>
@@ -3045,7 +4035,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>20</v>
       </c>
@@ -3235,10 +4225,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,29 +4248,29 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -3294,10 +4285,10 @@
       <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="72" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="25" t="s">
@@ -3323,10 +4314,10 @@
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="74">
         <v>41424</v>
       </c>
       <c r="D5" s="27" t="s">
@@ -3348,18 +4339,18 @@
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="84" t="s">
+      <c r="L5" s="73" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>2</v>
       </c>
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="74">
         <v>41424</v>
       </c>
       <c r="D6" s="27" t="s">
@@ -3386,10 +4377,10 @@
       <c r="A7" s="27">
         <v>3</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="74">
         <v>41424</v>
       </c>
       <c r="D7" s="27" t="s">
@@ -3411,7 +4402,7 @@
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="84" t="s">
+      <c r="L7" s="73" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3419,10 +4410,10 @@
       <c r="A8" s="27">
         <v>4</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="74">
         <v>41424</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -3444,18 +4435,18 @@
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
-      <c r="L8" s="84" t="s">
+      <c r="L8" s="73" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>5</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="74">
         <v>41424</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -3478,14 +4469,14 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
     </row>
-    <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>6</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="74">
         <v>41424</v>
       </c>
       <c r="D10" s="27" t="s">
@@ -3512,10 +4503,10 @@
       <c r="A11" s="27">
         <v>7</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="74">
         <v>41424</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -3537,7 +4528,7 @@
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
-      <c r="L11" s="84" t="s">
+      <c r="L11" s="73" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3545,10 +4536,10 @@
       <c r="A12" s="27">
         <v>8</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="74">
         <v>41424</v>
       </c>
       <c r="D12" s="27" t="s">
@@ -3570,7 +4561,7 @@
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
-      <c r="L12" s="84" t="s">
+      <c r="L12" s="73" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3578,10 +4569,10 @@
       <c r="A13" s="27">
         <v>9</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="74">
         <v>41424</v>
       </c>
       <c r="D13" s="27" t="s">
@@ -3603,18 +4594,18 @@
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
-      <c r="L13" s="84" t="s">
+      <c r="L13" s="73" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>10</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="74">
         <v>41424</v>
       </c>
       <c r="D14" s="27" t="s">
@@ -3637,11 +4628,11 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>11</v>
       </c>
-      <c r="B15" s="86"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
@@ -3655,7 +4646,7 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="28"/>
       <c r="C16" s="27"/>
@@ -3668,6 +4659,15 @@
       <c r="J16" s="27"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:L16">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="36"/>
+        <filter val="54"/>
+        <filter val="81"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
@@ -3989,17 +4989,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -4031,114 +5031,114 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81" t="s">
+      <c r="B17" s="88"/>
+      <c r="C17" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="81"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81" t="s">
+      <c r="B18" s="88"/>
+      <c r="C18" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="89"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="93"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -4296,10 +5296,10 @@
       <c r="B43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="79"/>
+      <c r="D43" s="94"/>
     </row>
     <row r="44" spans="1:5" ht="153" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
@@ -4308,10 +5308,10 @@
       <c r="B44" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="76">
+      <c r="C44" s="91">
         <v>41423</v>
       </c>
-      <c r="D44" s="77"/>
+      <c r="D44" s="92"/>
     </row>
     <row r="45" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
@@ -4320,10 +5320,10 @@
       <c r="B45" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="77"/>
+      <c r="D45" s="92"/>
     </row>
     <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
@@ -4332,10 +5332,10 @@
       <c r="B46" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="91">
         <v>41423</v>
       </c>
-      <c r="D46" s="77"/>
+      <c r="D46" s="92"/>
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
@@ -4344,10 +5344,10 @@
       <c r="B47" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="91">
         <v>41421</v>
       </c>
-      <c r="D47" s="77"/>
+      <c r="D47" s="92"/>
     </row>
     <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -4356,13 +5356,38 @@
       <c r="B48" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="91">
         <v>41421</v>
       </c>
-      <c r="D48" s="77"/>
+      <c r="D48" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="B7:J7"/>
@@ -4370,31 +5395,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4471,17 +5471,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -4513,106 +5513,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="93"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -4818,10 +5818,10 @@
       <c r="B43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="79"/>
+      <c r="D43" s="94"/>
     </row>
     <row r="44" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
@@ -4830,10 +5830,10 @@
       <c r="B44" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="77"/>
+      <c r="D44" s="92"/>
     </row>
     <row r="45" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
@@ -4842,68 +5842,43 @@
       <c r="B45" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="91">
         <v>41422</v>
       </c>
-      <c r="D45" s="77"/>
+      <c r="D45" s="92"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -4913,6 +5888,31 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4989,17 +5989,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -5031,108 +6031,108 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="78"/>
-    </row>
-    <row r="28" spans="1:5" ht="28.15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="93"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
         <v>51</v>
       </c>
@@ -5149,7 +6149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="56">
         <v>0.3979166666666667</v>
@@ -5162,7 +6162,7 @@
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="56">
         <v>0.39999999999999997</v>
@@ -5175,7 +6175,7 @@
       </c>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="56">
         <v>0.4069444444444445</v>
@@ -5188,7 +6188,7 @@
       </c>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="56">
         <v>0.4826388888888889</v>
@@ -5201,7 +6201,7 @@
       </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="56">
         <v>0.64930555555555558</v>
@@ -5214,7 +6214,7 @@
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="56">
         <v>0.67986111111111114</v>
@@ -5227,7 +6227,7 @@
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="57">
         <v>0.38750000000000001</v>
@@ -5240,7 +6240,7 @@
       </c>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="57">
         <v>0.53749999999999998</v>
@@ -5253,7 +6253,7 @@
       </c>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="57">
         <v>0.65</v>
@@ -5266,7 +6266,7 @@
       </c>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="57">
         <v>0.74652777777777779</v>
@@ -5279,7 +6279,7 @@
       </c>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="57">
         <v>1.6666666666666666E-2</v>
@@ -5292,7 +6292,7 @@
       </c>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="59">
         <v>1.9444444444444445E-2</v>
@@ -5305,7 +6305,7 @@
       </c>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="49"/>
       <c r="B41" s="61">
         <v>2.5694444444444447E-2</v>
@@ -5345,10 +6345,10 @@
       <c r="B44" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="79" t="s">
+      <c r="C44" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="79"/>
+      <c r="D44" s="94"/>
     </row>
     <row r="45" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
@@ -5357,10 +6357,10 @@
       <c r="B45" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="91">
         <v>41422</v>
       </c>
-      <c r="D45" s="77"/>
+      <c r="D45" s="92"/>
     </row>
     <row r="46" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
@@ -5369,10 +6369,10 @@
       <c r="B46" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="76">
+      <c r="C46" s="91">
         <v>41422</v>
       </c>
-      <c r="D46" s="77"/>
+      <c r="D46" s="92"/>
     </row>
     <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
@@ -5381,10 +6381,10 @@
       <c r="B47" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="76">
+      <c r="C47" s="91">
         <v>41422</v>
       </c>
-      <c r="D47" s="77"/>
+      <c r="D47" s="92"/>
     </row>
     <row r="48" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -5393,10 +6393,10 @@
       <c r="B48" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="91">
         <v>41422</v>
       </c>
-      <c r="D48" s="77"/>
+      <c r="D48" s="92"/>
     </row>
     <row r="49" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
@@ -5405,10 +6405,10 @@
       <c r="B49" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="76">
+      <c r="C49" s="91">
         <v>41422</v>
       </c>
-      <c r="D49" s="77"/>
+      <c r="D49" s="92"/>
     </row>
     <row r="50" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
@@ -5417,10 +6417,10 @@
       <c r="B50" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="76">
+      <c r="C50" s="91">
         <v>41422</v>
       </c>
-      <c r="D50" s="77"/>
+      <c r="D50" s="92"/>
     </row>
     <row r="51" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
@@ -5429,10 +6429,10 @@
       <c r="B51" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="76">
+      <c r="C51" s="91">
         <v>41422</v>
       </c>
-      <c r="D51" s="77"/>
+      <c r="D51" s="92"/>
     </row>
     <row r="52" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
@@ -5441,10 +6441,10 @@
       <c r="B52" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="76">
+      <c r="C52" s="91">
         <v>41422</v>
       </c>
-      <c r="D52" s="77"/>
+      <c r="D52" s="92"/>
     </row>
     <row r="53" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
@@ -5453,10 +6453,10 @@
       <c r="B53" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="76">
+      <c r="C53" s="91">
         <v>41422</v>
       </c>
-      <c r="D53" s="77"/>
+      <c r="D53" s="92"/>
     </row>
     <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -5465,10 +6465,10 @@
       <c r="B54" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="76">
+      <c r="C54" s="91">
         <v>41422</v>
       </c>
-      <c r="D54" s="77"/>
+      <c r="D54" s="92"/>
     </row>
     <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
@@ -5477,10 +6477,10 @@
       <c r="B55" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="76">
+      <c r="C55" s="91">
         <v>41422</v>
       </c>
-      <c r="D55" s="77"/>
+      <c r="D55" s="92"/>
     </row>
     <row r="56" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
@@ -5489,10 +6489,10 @@
       <c r="B56" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="76">
+      <c r="C56" s="91">
         <v>41422</v>
       </c>
-      <c r="D56" s="77"/>
+      <c r="D56" s="92"/>
     </row>
     <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
@@ -5501,10 +6501,10 @@
       <c r="B57" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="76">
+      <c r="C57" s="91">
         <v>41422</v>
       </c>
-      <c r="D57" s="77"/>
+      <c r="D57" s="92"/>
     </row>
     <row r="58" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
@@ -5513,10 +6513,10 @@
       <c r="B58" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="91">
         <v>41422</v>
       </c>
-      <c r="D58" s="77"/>
+      <c r="D58" s="92"/>
     </row>
     <row r="59" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
@@ -5525,10 +6525,10 @@
       <c r="B59" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="91">
         <v>41422</v>
       </c>
-      <c r="D59" s="77"/>
+      <c r="D59" s="92"/>
     </row>
     <row r="60" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
@@ -5537,10 +6537,10 @@
       <c r="B60" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="76">
+      <c r="C60" s="91">
         <v>41422</v>
       </c>
-      <c r="D60" s="77"/>
+      <c r="D60" s="92"/>
     </row>
     <row r="61" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
@@ -5549,10 +6549,10 @@
       <c r="B61" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="76">
+      <c r="C61" s="91">
         <v>41422</v>
       </c>
-      <c r="D61" s="77"/>
+      <c r="D61" s="92"/>
     </row>
     <row r="62" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
@@ -5561,10 +6561,10 @@
       <c r="B62" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="76">
+      <c r="C62" s="91">
         <v>41422</v>
       </c>
-      <c r="D62" s="77"/>
+      <c r="D62" s="92"/>
     </row>
     <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
@@ -5573,10 +6573,10 @@
       <c r="B63" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="76">
+      <c r="C63" s="91">
         <v>41422</v>
       </c>
-      <c r="D63" s="77"/>
+      <c r="D63" s="92"/>
     </row>
     <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
@@ -5585,10 +6585,10 @@
       <c r="B64" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="76">
+      <c r="C64" s="91">
         <v>41422</v>
       </c>
-      <c r="D64" s="77"/>
+      <c r="D64" s="92"/>
     </row>
     <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
@@ -5597,10 +6597,10 @@
       <c r="B65" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="76">
+      <c r="C65" s="91">
         <v>41422</v>
       </c>
-      <c r="D65" s="77"/>
+      <c r="D65" s="92"/>
     </row>
     <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
@@ -5609,10 +6609,10 @@
       <c r="B66" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="76">
+      <c r="C66" s="91">
         <v>41422</v>
       </c>
-      <c r="D66" s="77"/>
+      <c r="D66" s="92"/>
     </row>
     <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
@@ -5621,10 +6621,10 @@
       <c r="B67" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="76">
+      <c r="C67" s="91">
         <v>41422</v>
       </c>
-      <c r="D67" s="77"/>
+      <c r="D67" s="92"/>
     </row>
     <row r="68" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
@@ -5633,10 +6633,10 @@
       <c r="B68" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="76">
+      <c r="C68" s="91">
         <v>41422</v>
       </c>
-      <c r="D68" s="77"/>
+      <c r="D68" s="92"/>
     </row>
     <row r="69" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
@@ -5645,10 +6645,10 @@
       <c r="B69" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="76">
+      <c r="C69" s="91">
         <v>41422</v>
       </c>
-      <c r="D69" s="77"/>
+      <c r="D69" s="92"/>
     </row>
     <row r="70" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
@@ -5657,10 +6657,10 @@
       <c r="B70" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="76">
+      <c r="C70" s="91">
         <v>41422</v>
       </c>
-      <c r="D70" s="77"/>
+      <c r="D70" s="92"/>
     </row>
     <row r="71" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
@@ -5669,10 +6669,10 @@
       <c r="B71" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="76">
+      <c r="C71" s="91">
         <v>41422</v>
       </c>
-      <c r="D71" s="77"/>
+      <c r="D71" s="92"/>
     </row>
     <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
@@ -5681,10 +6681,10 @@
       <c r="B72" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="76">
+      <c r="C72" s="91">
         <v>41422</v>
       </c>
-      <c r="D72" s="77"/>
+      <c r="D72" s="92"/>
     </row>
     <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
@@ -5693,10 +6693,10 @@
       <c r="B73" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="76">
+      <c r="C73" s="91">
         <v>41422</v>
       </c>
-      <c r="D73" s="77"/>
+      <c r="D73" s="92"/>
     </row>
     <row r="74" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
@@ -5705,10 +6705,10 @@
       <c r="B74" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="76">
+      <c r="C74" s="91">
         <v>41422</v>
       </c>
-      <c r="D74" s="77"/>
+      <c r="D74" s="92"/>
     </row>
     <row r="75" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
@@ -5717,10 +6717,10 @@
       <c r="B75" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="76">
+      <c r="C75" s="91">
         <v>41422</v>
       </c>
-      <c r="D75" s="77"/>
+      <c r="D75" s="92"/>
     </row>
     <row r="76" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
@@ -5729,10 +6729,10 @@
       <c r="B76" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="76">
+      <c r="C76" s="91">
         <v>41422</v>
       </c>
-      <c r="D76" s="77"/>
+      <c r="D76" s="92"/>
     </row>
     <row r="77" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
@@ -5741,10 +6741,10 @@
       <c r="B77" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="76">
+      <c r="C77" s="91">
         <v>41422</v>
       </c>
-      <c r="D77" s="77"/>
+      <c r="D77" s="92"/>
     </row>
     <row r="78" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
@@ -5753,29 +6753,42 @@
       <c r="B78" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="76" t="s">
+      <c r="C78" s="91" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="77"/>
+      <c r="D78" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
@@ -5792,35 +6805,22 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5898,17 +6898,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="90" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5940,106 +6940,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="89"/>
+      <c r="C11" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="81"/>
+      <c r="D11" s="89"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="89"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81" t="s">
+      <c r="B13" s="88"/>
+      <c r="C13" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="81"/>
+      <c r="D13" s="89"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="81"/>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="88"/>
+      <c r="C15" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="81"/>
+      <c r="D15" s="89"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="81"/>
+      <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="78"/>
+      <c r="B27" s="93"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -6199,10 +7199,10 @@
       <c r="B43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="79"/>
+      <c r="D43" s="94"/>
     </row>
     <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
@@ -6211,65 +7211,47 @@
       <c r="B44" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -6286,6 +7268,24 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6293,7 +7293,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
@@ -6313,26 +7313,26 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+    <row r="2" spans="1:7" s="76" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6533,7 +7533,7 @@
       <c r="C14" t="s">
         <v>229</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D14" s="78">
         <v>41453</v>
       </c>
       <c r="F14" t="s">
@@ -6543,7 +7543,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>165</v>
       </c>
@@ -6553,14 +7553,14 @@
       <c r="C15" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="78">
         <v>41432</v>
       </c>
       <c r="F15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -6570,7 +7570,7 @@
       <c r="C16" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="78">
         <v>41439</v>
       </c>
       <c r="F16" t="s">
@@ -6587,15 +7587,14 @@
       <c r="C17" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="78">
         <v>41432</v>
       </c>
       <c r="F17" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -6605,7 +7604,7 @@
       <c r="C21" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="78">
         <v>41432</v>
       </c>
       <c r="F21" t="s">
@@ -6622,7 +7621,7 @@
       <c r="C22" t="s">
         <v>229</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="78">
         <v>41439</v>
       </c>
       <c r="F22" t="s">
@@ -6651,7 +7650,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -6673,14 +7672,6 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
+++ b/swbproys/gestor-bsc/doc/LAU/formatos lanzamiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="330" windowWidth="15240" windowHeight="5985" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="120" yWindow="330" windowWidth="15240" windowHeight="5985" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="GOAL" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Minuta Junta 7" sheetId="11" r:id="rId11"/>
     <sheet name="Minuta Junta 5" sheetId="12" r:id="rId12"/>
     <sheet name="Minuta Junta 8" sheetId="13" r:id="rId13"/>
+    <sheet name="Minuta Junta 9" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'ITL Riesgos'!$A$4:$L$16</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="253">
   <si>
     <t>Measures</t>
   </si>
@@ -796,6 +797,18 @@
   </si>
   <si>
     <t>Management Meeting Preparation</t>
+  </si>
+  <si>
+    <t>Junta 9. Postmortem del Lanzamiento</t>
+  </si>
+  <si>
+    <t>Launch Postmortem</t>
+  </si>
+  <si>
+    <t>Prepare PIPs</t>
+  </si>
+  <si>
+    <t>Launch Evaluation</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1416,6 +1429,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1434,15 +1453,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1454,6 +1464,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1790,14 +1809,14 @@
     <row r="3" spans="1:5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="83"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="86" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1814,7 +1833,7 @@
       <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="85"/>
+      <c r="E5" s="87"/>
     </row>
     <row r="6" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
@@ -1992,7 +2011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
@@ -2057,17 +2076,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -2099,106 +2118,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -2349,10 +2368,10 @@
       <c r="B42" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="94" t="s">
+      <c r="C42" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="94"/>
+      <c r="D42" s="93"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
@@ -2361,74 +2380,49 @@
       <c r="B43" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="C43" s="91">
+      <c r="C43" s="90">
         <v>41490</v>
       </c>
-      <c r="D43" s="92"/>
+      <c r="D43" s="91"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
@@ -2438,6 +2432,31 @@
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2448,7 +2467,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,17 +2533,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -2556,106 +2575,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -2799,54 +2818,521 @@
       <c r="B41" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="94"/>
+      <c r="D41" s="93"/>
     </row>
     <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>204</v>
       </c>
       <c r="B42" s="38"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="2"/>
+    <col min="4" max="4" width="37.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="40">
+        <v>41424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="69">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="69">
+        <v>0.91527777777777775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="95"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="95"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="95"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="95"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="95"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="92"/>
+    </row>
+    <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C29" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49"/>
+      <c r="B30" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C30" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="39">
+        <v>0.84652777777777777</v>
+      </c>
+      <c r="C31" s="39">
+        <v>0.84861111111111109</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49"/>
+      <c r="B33" s="39">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="C33" s="39">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="39">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="C34" s="39">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="39">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C35" s="39">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="49"/>
+      <c r="B36" s="39">
+        <v>0.91388888888888886</v>
+      </c>
+      <c r="C36" s="39">
+        <v>0.91527777777777775</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="49"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="93"/>
+    </row>
+    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="90">
+        <v>41432</v>
+      </c>
+      <c r="D42" s="91"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -2886,16 +3372,15 @@
     <mergeCell ref="C45:D45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +3411,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>44</v>
@@ -2948,54 +3433,54 @@
         <v>46</v>
       </c>
       <c r="B4" s="69">
-        <v>0.84652777777777777</v>
+        <v>0.9375</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D4" s="69">
-        <v>0.91527777777777775</v>
+        <v>5.4166666666666669E-2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="90" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="B7" s="96" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3003,106 +3488,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -3124,10 +3609,10 @@
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.9375</v>
       </c>
       <c r="C29" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.93819444444444444</v>
       </c>
       <c r="D29" s="54" t="s">
         <v>233</v>
@@ -3139,10 +3624,10 @@
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.93819444444444444</v>
       </c>
       <c r="C30" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.93958333333333333</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>95</v>
@@ -3154,92 +3639,68 @@
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="39">
-        <v>0.84652777777777777</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="C31" s="39">
-        <v>0.84861111111111109</v>
+        <v>0.99305555555555547</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
       <c r="B32" s="39">
-        <v>0.86805555555555547</v>
+        <v>0.99375000000000002</v>
       </c>
       <c r="C32" s="39">
-        <v>0.86805555555555547</v>
+        <v>5.0694444444444452E-2</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="49"/>
       <c r="B33" s="39">
-        <v>0.86805555555555547</v>
+        <v>5.0694444444444452E-2</v>
       </c>
       <c r="C33" s="39">
-        <v>0.88194444444444453</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="49"/>
-      <c r="B34" s="39">
-        <v>0.88194444444444453</v>
-      </c>
-      <c r="C34" s="39">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>235</v>
-      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="49"/>
-      <c r="B35" s="39">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C35" s="39">
-        <v>0.91319444444444453</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="E35" s="54" t="s">
-        <v>235</v>
-      </c>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="49"/>
-      <c r="B36" s="39">
-        <v>0.91388888888888886</v>
-      </c>
-      <c r="C36" s="39">
-        <v>0.91527777777777775</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>235</v>
-      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="49"/>
@@ -3256,67 +3717,92 @@
       <c r="E38" s="54"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="94"/>
-    </row>
-    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="91">
-        <v>41432</v>
-      </c>
-      <c r="D42" s="92"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
+      <c r="D41" s="93"/>
+    </row>
+    <row r="42" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+    </row>
+    <row r="43" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="49" t="s">
+        <v>244</v>
+      </c>
       <c r="B43" s="38"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
+    </row>
+    <row r="44" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
+        <v>245</v>
+      </c>
       <c r="B44" s="38"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -3326,42 +3812,17 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3845,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="40">
-        <v>41424</v>
+        <v>41425</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3406,7 +3867,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="40">
-        <v>41424</v>
+        <v>41425</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3414,54 +3875,52 @@
         <v>46</v>
       </c>
       <c r="B4" s="69">
-        <v>0.9375</v>
+        <v>0.9604166666666667</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="69">
-        <v>5.4166666666666669E-2</v>
-      </c>
+      <c r="D4" s="69"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="90" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="B7" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="80"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -3469,106 +3928,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -3590,10 +4049,10 @@
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="49"/>
       <c r="B29" s="39">
-        <v>0.9375</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="C29" s="39">
-        <v>0.93819444444444444</v>
+        <v>0.4604166666666667</v>
       </c>
       <c r="D29" s="54" t="s">
         <v>233</v>
@@ -3605,10 +4064,10 @@
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="39">
-        <v>0.93819444444444444</v>
+        <v>0.46111111111111108</v>
       </c>
       <c r="C30" s="39">
-        <v>0.93958333333333333</v>
+        <v>0.46180555555555558</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>95</v>
@@ -3619,14 +4078,10 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
-      <c r="B31" s="39">
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="C31" s="39">
-        <v>0.99305555555555547</v>
-      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="54" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E31" s="54" t="s">
         <v>247</v>
@@ -3634,14 +4089,10 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
-      <c r="B32" s="39">
-        <v>0.99375000000000002</v>
-      </c>
-      <c r="C32" s="39">
-        <v>5.0694444444444452E-2</v>
-      </c>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
       <c r="D32" s="54" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E32" s="54" t="s">
         <v>247</v>
@@ -3656,7 +4107,7 @@
         <v>5.4166666666666669E-2</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="E33" s="54" t="s">
         <v>247</v>
@@ -3666,7 +4117,9 @@
       <c r="A34" s="49"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
-      <c r="D34" s="54"/>
+      <c r="D34" s="54" t="s">
+        <v>77</v>
+      </c>
       <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3698,64 +4151,64 @@
       <c r="E38" s="54"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="94"/>
+      <c r="D41" s="93"/>
     </row>
     <row r="42" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
         <v>243</v>
       </c>
       <c r="B42" s="38"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
     </row>
     <row r="43" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>244</v>
       </c>
       <c r="B43" s="38"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="91"/>
     </row>
     <row r="44" spans="1:5" ht="41.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="49" t="s">
         <v>245</v>
       </c>
       <c r="B44" s="38"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -4248,29 +4701,29 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="4" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -4989,17 +5442,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5031,114 +5484,114 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -5296,10 +5749,10 @@
       <c r="B43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="94"/>
+      <c r="D43" s="93"/>
     </row>
     <row r="44" spans="1:5" ht="153" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
@@ -5308,10 +5761,10 @@
       <c r="B44" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="91">
+      <c r="C44" s="90">
         <v>41423</v>
       </c>
-      <c r="D44" s="92"/>
+      <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
@@ -5320,10 +5773,10 @@
       <c r="B45" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="92" t="s">
+      <c r="C45" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="D45" s="92"/>
+      <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
@@ -5332,10 +5785,10 @@
       <c r="B46" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="91">
+      <c r="C46" s="90">
         <v>41423</v>
       </c>
-      <c r="D46" s="92"/>
+      <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
@@ -5344,10 +5797,10 @@
       <c r="B47" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="91">
+      <c r="C47" s="90">
         <v>41421</v>
       </c>
-      <c r="D47" s="92"/>
+      <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -5356,13 +5809,38 @@
       <c r="B48" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="91">
+      <c r="C48" s="90">
         <v>41421</v>
       </c>
-      <c r="D48" s="92"/>
+      <c r="D48" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -5370,31 +5848,6 @@
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5405,7 +5858,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="C13" sqref="C13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5471,17 +5924,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -5513,106 +5966,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -5818,10 +6271,10 @@
       <c r="B43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="94"/>
+      <c r="D43" s="93"/>
     </row>
     <row r="44" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
@@ -5830,10 +6283,10 @@
       <c r="B44" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="92"/>
+      <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
@@ -5842,43 +6295,68 @@
       <c r="B45" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="91">
+      <c r="C45" s="90">
         <v>41422</v>
       </c>
-      <c r="D45" s="92"/>
+      <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
@@ -5888,31 +6366,6 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5923,7 +6376,7 @@
   <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D16"/>
+      <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5989,17 +6442,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -6031,106 +6484,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -6345,10 +6798,10 @@
       <c r="B44" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="94"/>
+      <c r="D44" s="93"/>
     </row>
     <row r="45" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
@@ -6357,10 +6810,10 @@
       <c r="B45" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C45" s="91">
+      <c r="C45" s="90">
         <v>41422</v>
       </c>
-      <c r="D45" s="92"/>
+      <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
@@ -6369,10 +6822,10 @@
       <c r="B46" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="91">
+      <c r="C46" s="90">
         <v>41422</v>
       </c>
-      <c r="D46" s="92"/>
+      <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
@@ -6381,10 +6834,10 @@
       <c r="B47" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="91">
+      <c r="C47" s="90">
         <v>41422</v>
       </c>
-      <c r="D47" s="92"/>
+      <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
@@ -6393,10 +6846,10 @@
       <c r="B48" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="91">
+      <c r="C48" s="90">
         <v>41422</v>
       </c>
-      <c r="D48" s="92"/>
+      <c r="D48" s="91"/>
     </row>
     <row r="49" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
@@ -6405,10 +6858,10 @@
       <c r="B49" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="91">
+      <c r="C49" s="90">
         <v>41422</v>
       </c>
-      <c r="D49" s="92"/>
+      <c r="D49" s="91"/>
     </row>
     <row r="50" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
@@ -6417,10 +6870,10 @@
       <c r="B50" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="91">
+      <c r="C50" s="90">
         <v>41422</v>
       </c>
-      <c r="D50" s="92"/>
+      <c r="D50" s="91"/>
     </row>
     <row r="51" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
@@ -6429,10 +6882,10 @@
       <c r="B51" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="91">
+      <c r="C51" s="90">
         <v>41422</v>
       </c>
-      <c r="D51" s="92"/>
+      <c r="D51" s="91"/>
     </row>
     <row r="52" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
@@ -6441,10 +6894,10 @@
       <c r="B52" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C52" s="91">
+      <c r="C52" s="90">
         <v>41422</v>
       </c>
-      <c r="D52" s="92"/>
+      <c r="D52" s="91"/>
     </row>
     <row r="53" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
@@ -6453,10 +6906,10 @@
       <c r="B53" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="91">
+      <c r="C53" s="90">
         <v>41422</v>
       </c>
-      <c r="D53" s="92"/>
+      <c r="D53" s="91"/>
     </row>
     <row r="54" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
@@ -6465,10 +6918,10 @@
       <c r="B54" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="91">
+      <c r="C54" s="90">
         <v>41422</v>
       </c>
-      <c r="D54" s="92"/>
+      <c r="D54" s="91"/>
     </row>
     <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
@@ -6477,10 +6930,10 @@
       <c r="B55" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="91">
+      <c r="C55" s="90">
         <v>41422</v>
       </c>
-      <c r="D55" s="92"/>
+      <c r="D55" s="91"/>
     </row>
     <row r="56" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="38" t="s">
@@ -6489,10 +6942,10 @@
       <c r="B56" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="91">
+      <c r="C56" s="90">
         <v>41422</v>
       </c>
-      <c r="D56" s="92"/>
+      <c r="D56" s="91"/>
     </row>
     <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="38" t="s">
@@ -6501,10 +6954,10 @@
       <c r="B57" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="91">
+      <c r="C57" s="90">
         <v>41422</v>
       </c>
-      <c r="D57" s="92"/>
+      <c r="D57" s="91"/>
     </row>
     <row r="58" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="38" t="s">
@@ -6513,10 +6966,10 @@
       <c r="B58" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="91">
+      <c r="C58" s="90">
         <v>41422</v>
       </c>
-      <c r="D58" s="92"/>
+      <c r="D58" s="91"/>
     </row>
     <row r="59" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
@@ -6525,10 +6978,10 @@
       <c r="B59" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="91">
+      <c r="C59" s="90">
         <v>41422</v>
       </c>
-      <c r="D59" s="92"/>
+      <c r="D59" s="91"/>
     </row>
     <row r="60" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A60" s="38" t="s">
@@ -6537,10 +6990,10 @@
       <c r="B60" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="91">
+      <c r="C60" s="90">
         <v>41422</v>
       </c>
-      <c r="D60" s="92"/>
+      <c r="D60" s="91"/>
     </row>
     <row r="61" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A61" s="38" t="s">
@@ -6549,10 +7002,10 @@
       <c r="B61" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="91">
+      <c r="C61" s="90">
         <v>41422</v>
       </c>
-      <c r="D61" s="92"/>
+      <c r="D61" s="91"/>
     </row>
     <row r="62" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
@@ -6561,10 +7014,10 @@
       <c r="B62" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="91">
+      <c r="C62" s="90">
         <v>41422</v>
       </c>
-      <c r="D62" s="92"/>
+      <c r="D62" s="91"/>
     </row>
     <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A63" s="38" t="s">
@@ -6573,10 +7026,10 @@
       <c r="B63" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="91">
+      <c r="C63" s="90">
         <v>41422</v>
       </c>
-      <c r="D63" s="92"/>
+      <c r="D63" s="91"/>
     </row>
     <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="38" t="s">
@@ -6585,10 +7038,10 @@
       <c r="B64" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="91">
+      <c r="C64" s="90">
         <v>41422</v>
       </c>
-      <c r="D64" s="92"/>
+      <c r="D64" s="91"/>
     </row>
     <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A65" s="38" t="s">
@@ -6597,10 +7050,10 @@
       <c r="B65" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C65" s="91">
+      <c r="C65" s="90">
         <v>41422</v>
       </c>
-      <c r="D65" s="92"/>
+      <c r="D65" s="91"/>
     </row>
     <row r="66" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A66" s="38" t="s">
@@ -6609,10 +7062,10 @@
       <c r="B66" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="91">
+      <c r="C66" s="90">
         <v>41422</v>
       </c>
-      <c r="D66" s="92"/>
+      <c r="D66" s="91"/>
     </row>
     <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A67" s="38" t="s">
@@ -6621,10 +7074,10 @@
       <c r="B67" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="91">
+      <c r="C67" s="90">
         <v>41422</v>
       </c>
-      <c r="D67" s="92"/>
+      <c r="D67" s="91"/>
     </row>
     <row r="68" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="38" t="s">
@@ -6633,10 +7086,10 @@
       <c r="B68" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="91">
+      <c r="C68" s="90">
         <v>41422</v>
       </c>
-      <c r="D68" s="92"/>
+      <c r="D68" s="91"/>
     </row>
     <row r="69" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="38" t="s">
@@ -6645,10 +7098,10 @@
       <c r="B69" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="91">
+      <c r="C69" s="90">
         <v>41422</v>
       </c>
-      <c r="D69" s="92"/>
+      <c r="D69" s="91"/>
     </row>
     <row r="70" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A70" s="38" t="s">
@@ -6657,10 +7110,10 @@
       <c r="B70" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="91">
+      <c r="C70" s="90">
         <v>41422</v>
       </c>
-      <c r="D70" s="92"/>
+      <c r="D70" s="91"/>
     </row>
     <row r="71" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A71" s="38" t="s">
@@ -6669,10 +7122,10 @@
       <c r="B71" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="91">
+      <c r="C71" s="90">
         <v>41422</v>
       </c>
-      <c r="D71" s="92"/>
+      <c r="D71" s="91"/>
     </row>
     <row r="72" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="38" t="s">
@@ -6681,10 +7134,10 @@
       <c r="B72" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="91">
+      <c r="C72" s="90">
         <v>41422</v>
       </c>
-      <c r="D72" s="92"/>
+      <c r="D72" s="91"/>
     </row>
     <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A73" s="38" t="s">
@@ -6693,10 +7146,10 @@
       <c r="B73" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="91">
+      <c r="C73" s="90">
         <v>41422</v>
       </c>
-      <c r="D73" s="92"/>
+      <c r="D73" s="91"/>
     </row>
     <row r="74" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="38" t="s">
@@ -6705,10 +7158,10 @@
       <c r="B74" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="91">
+      <c r="C74" s="90">
         <v>41422</v>
       </c>
-      <c r="D74" s="92"/>
+      <c r="D74" s="91"/>
     </row>
     <row r="75" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
@@ -6717,10 +7170,10 @@
       <c r="B75" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C75" s="91">
+      <c r="C75" s="90">
         <v>41422</v>
       </c>
-      <c r="D75" s="92"/>
+      <c r="D75" s="91"/>
     </row>
     <row r="76" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="38" t="s">
@@ -6729,10 +7182,10 @@
       <c r="B76" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="91">
+      <c r="C76" s="90">
         <v>41422</v>
       </c>
-      <c r="D76" s="92"/>
+      <c r="D76" s="91"/>
     </row>
     <row r="77" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
@@ -6741,10 +7194,10 @@
       <c r="B77" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="91">
+      <c r="C77" s="90">
         <v>41422</v>
       </c>
-      <c r="D77" s="92"/>
+      <c r="D77" s="91"/>
     </row>
     <row r="78" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="38" t="s">
@@ -6753,42 +7206,29 @@
       <c r="B78" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C78" s="91" t="s">
+      <c r="C78" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="D78" s="92"/>
+      <c r="D78" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C60:D60"/>
     <mergeCell ref="C61:D61"/>
@@ -6805,22 +7245,35 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6832,7 +7285,7 @@
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6898,17 +7351,17 @@
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="96" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -6940,106 +7393,106 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="89"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89" t="s">
+      <c r="B12" s="94"/>
+      <c r="C12" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="89"/>
+      <c r="D12" s="95"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89" t="s">
+      <c r="B13" s="94"/>
+      <c r="C13" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="95"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="94"/>
+      <c r="C14" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="89"/>
+      <c r="D14" s="95"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="89"/>
+      <c r="D15" s="95"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="94"/>
+      <c r="C16" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="95"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="93"/>
+      <c r="B27" s="92"/>
     </row>
     <row r="28" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="35" t="s">
@@ -7199,10 +7652,10 @@
       <c r="B43" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="94" t="s">
+      <c r="C43" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="94"/>
+      <c r="D43" s="93"/>
     </row>
     <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
@@ -7211,47 +7664,65 @@
       <c r="B44" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="91"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="38"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="38"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
@@ -7268,24 +7739,6 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
